--- a/standard/forms/app/pregnancy.xlsx
+++ b/standard/forms/app/pregnancy.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14440" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -22,1053 +24,1038 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="437">
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::ne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appearance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::ne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::ne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">begin group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">मरीज</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pasien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./source = 'user'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db:person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the patient's name?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">मरीज का नाम क्या है?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apa nama pasien?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db-object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select a person from list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सूची से एक व्यक्ति का चयन करें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilih orang dari daftar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_of_birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient_age_in_years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">साल</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if ( ${date_of_birth}='', '', floor( difference-in-months( ${date_of_birth}, today() ) div 12 ) )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient UUID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">मरीज UUID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pasien UUID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/contact/_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="442">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label::en</t>
+  </si>
+  <si>
+    <t>label::hi</t>
+  </si>
+  <si>
+    <t>label::id</t>
+  </si>
+  <si>
+    <t>label::sw</t>
+  </si>
+  <si>
+    <t>label::ne</t>
+  </si>
+  <si>
+    <t>label::es</t>
+  </si>
+  <si>
+    <t>label::fr</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>constraint_message::en</t>
+  </si>
+  <si>
+    <t>constraint_message::hi</t>
+  </si>
+  <si>
+    <t>constraint_message::id</t>
+  </si>
+  <si>
+    <t>constraint_message::sw</t>
+  </si>
+  <si>
+    <t>constraint_message::ne</t>
+  </si>
+  <si>
+    <t>constraint_message::es</t>
+  </si>
+  <si>
+    <t>constraint_message::fr</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>hint::en</t>
+  </si>
+  <si>
+    <t>hint::hi</t>
+  </si>
+  <si>
+    <t>hint::id</t>
+  </si>
+  <si>
+    <t>hint::sw</t>
+  </si>
+  <si>
+    <t>hint::ne</t>
+  </si>
+  <si>
+    <t>hint::es</t>
+  </si>
+  <si>
+    <t>hint::fr</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>मरीज</t>
+  </si>
+  <si>
+    <t>Pasien</t>
+  </si>
+  <si>
+    <t>./source = 'user'</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>db:person</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>What is the patient's name?</t>
+  </si>
+  <si>
+    <t>मरीज का नाम क्या है?</t>
+  </si>
+  <si>
+    <t>Apa nama pasien?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>db-object</t>
+  </si>
+  <si>
+    <t>Select a person from list</t>
+  </si>
+  <si>
+    <t>सूची से एक व्यक्ति का चयन करें</t>
+  </si>
+  <si>
+    <t>Pilih orang dari daftar</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>patient_age_in_years</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>साल</t>
+  </si>
+  <si>
+    <t>Umur</t>
+  </si>
+  <si>
+    <t>if ( ${date_of_birth}='', '', floor( difference-in-months( ${date_of_birth}, today() ) div 12 ) )</t>
+  </si>
+  <si>
+    <t>patient_uuid</t>
+  </si>
+  <si>
+    <t>Patient UUID</t>
+  </si>
+  <si>
+    <t>मरीज UUID</t>
+  </si>
+  <si>
+    <t>Pasien UUID</t>
+  </si>
+  <si>
+    <t>../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t>Patient ID</t>
   </si>
   <si>
     <t xml:space="preserve">मरीज का आईडी </t>
   </si>
   <si>
-    <t xml:space="preserve">Pasien ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/contact/patient_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">मरीज का ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nama Pasien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/contact/name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chw_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी का नाम</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nama Kader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/contact/parent/contact/name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chw_phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी का फोन नंबर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nomor Telepon Kader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/contact/parent/contact/phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chw_sms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note to the CHW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी के लिए नोट</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catatan ke kader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${g_chw_sms}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lmp_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMP Method</t>
+    <t>Pasien ID</t>
+  </si>
+  <si>
+    <t>../inputs/contact/patient_id</t>
+  </si>
+  <si>
+    <t>patient_name</t>
+  </si>
+  <si>
+    <t>Patient Name</t>
+  </si>
+  <si>
+    <t>मरीज का ID</t>
+  </si>
+  <si>
+    <t>Nama Pasien</t>
+  </si>
+  <si>
+    <t>../inputs/contact/name</t>
+  </si>
+  <si>
+    <t>chw_name</t>
+  </si>
+  <si>
+    <t>CHW Name</t>
+  </si>
+  <si>
+    <t>सामुदायिक स्वास्थ्य कर्मी का नाम</t>
+  </si>
+  <si>
+    <t>Nama Kader</t>
+  </si>
+  <si>
+    <t>../inputs/contact/parent/contact/name</t>
+  </si>
+  <si>
+    <t>chw_phone</t>
+  </si>
+  <si>
+    <t>CHW Phone</t>
+  </si>
+  <si>
+    <t>सामुदायिक स्वास्थ्य कर्मी का फोन नंबर</t>
+  </si>
+  <si>
+    <t>Nomor Telepon Kader</t>
+  </si>
+  <si>
+    <t>../inputs/contact/parent/contact/phone</t>
+  </si>
+  <si>
+    <t>chw_sms</t>
+  </si>
+  <si>
+    <t>Note to the CHW</t>
+  </si>
+  <si>
+    <t>सामुदायिक स्वास्थ्य कर्मी के लिए नोट</t>
+  </si>
+  <si>
+    <t>Catatan ke kader</t>
+  </si>
+  <si>
+    <t>lmp_method</t>
+  </si>
+  <si>
+    <t>LMP Method</t>
   </si>
   <si>
     <t xml:space="preserve">पिछली मासिक का तरीका </t>
   </si>
   <si>
-    <t xml:space="preserve">Cara menstruasi periode terakhir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lmp_date_8601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पिछली मासिक</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periode menstruasi terakhir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lmp_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edd_8601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">डेलिवरी की अपेक्षित तारीख</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanggal taksiran persalinan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">risk_factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risk Factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">खतरे का कारण</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faktor risiko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">danger_signs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danger Signs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ख़तरे के संकेत</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanda-tanda bahaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient_age_at_lmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age at LMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पिछली मासिक का उम्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umur di periode menstruasi terakhir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">floor( difference-in-months( ${date_of_birth}, ${lmp_date_8601} ) div 12 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">days_since_lmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">round(decimal-date-time(today()) - decimal-date-time(${g_lmp_date_8601}), 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weeks_since_lmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">round(${days_since_lmp} div 7, 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group_lmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Menstrual Period</t>
+    <t>Cara menstruasi periode terakhir</t>
+  </si>
+  <si>
+    <t>lmp_date_8601</t>
+  </si>
+  <si>
+    <t>LMP</t>
+  </si>
+  <si>
+    <t>पिछली मासिक</t>
+  </si>
+  <si>
+    <t>Periode menstruasi terakhir</t>
+  </si>
+  <si>
+    <t>lmp_date</t>
+  </si>
+  <si>
+    <t>edd_8601</t>
+  </si>
+  <si>
+    <t>EDD</t>
+  </si>
+  <si>
+    <t>डेलिवरी की अपेक्षित तारीख</t>
+  </si>
+  <si>
+    <t>Tanggal taksiran persalinan</t>
+  </si>
+  <si>
+    <t>edd</t>
+  </si>
+  <si>
+    <t>risk_factors</t>
+  </si>
+  <si>
+    <t>Risk Factors</t>
+  </si>
+  <si>
+    <t>खतरे का कारण</t>
+  </si>
+  <si>
+    <t>Faktor risiko</t>
+  </si>
+  <si>
+    <t>danger_signs</t>
+  </si>
+  <si>
+    <t>Danger Signs</t>
+  </si>
+  <si>
+    <t>ख़तरे के संकेत</t>
+  </si>
+  <si>
+    <t>Tanda-tanda bahaya</t>
+  </si>
+  <si>
+    <t>patient_age_at_lmp</t>
+  </si>
+  <si>
+    <t>Age at LMP</t>
+  </si>
+  <si>
+    <t>पिछली मासिक का उम्र</t>
+  </si>
+  <si>
+    <t>Umur di periode menstruasi terakhir</t>
+  </si>
+  <si>
+    <t>floor( difference-in-months( ${date_of_birth}, ${lmp_date_8601} ) div 12 )</t>
+  </si>
+  <si>
+    <t>days_since_lmp</t>
+  </si>
+  <si>
+    <t>round(decimal-date-time(today()) - decimal-date-time(${g_lmp_date_8601}), 2)</t>
+  </si>
+  <si>
+    <t>weeks_since_lmp</t>
+  </si>
+  <si>
+    <t>round(${days_since_lmp} div 7, 2)</t>
+  </si>
+  <si>
+    <t>group_lmp</t>
+  </si>
+  <si>
+    <t>Last Menstrual Period</t>
   </si>
   <si>
     <t xml:space="preserve">Periode Menstruasi Terakhir </t>
   </si>
   <si>
-    <t xml:space="preserve">select_one select_lmp_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g_lmp_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does the woman know the date of the last cycle?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">क्या महिला को अपने पिछली मासिक का तारीख पता है?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apakah wanita tahu tanggal siklus menstruasi terakhir?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">horizontal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calendar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g_lmp_calendar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start date of last cycle</t>
+    <t>select_one select_lmp_method</t>
+  </si>
+  <si>
+    <t>g_lmp_method</t>
+  </si>
+  <si>
+    <t>Does the woman know the date of the last cycle?</t>
+  </si>
+  <si>
+    <t>क्या महिला को अपने पिछली मासिक का तारीख पता है?</t>
+  </si>
+  <si>
+    <t>Apakah wanita tahu tanggal siklus menstruasi terakhir?</t>
+  </si>
+  <si>
+    <t>horizontal</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>g_lmp_calendar</t>
+  </si>
+  <si>
+    <t>Start date of last cycle</t>
   </si>
   <si>
     <t xml:space="preserve">पिछली मासिक के शूरू होने की तारीख </t>
   </si>
   <si>
-    <t xml:space="preserve">Tanggal mulai siklus menstruasi terakhir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${g_lmp_method},'calendar')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.&lt;today() and ((decimal-date-time(.)+294) &gt;= decimal-date-time(today()))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date must be in the previous 42 weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">तारीख पिछले 42 सप्ताह में होना चाहिए</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanggal harus dalam 42 minggu sebelumnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one select_lmp_approx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g_lmp_approx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approximate start date of last cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पिछली मासिक के शूरू होने की अंदाज़न तारीख</t>
+    <t>Tanggal mulai siklus menstruasi terakhir</t>
+  </si>
+  <si>
+    <t>selected(${g_lmp_method},'calendar')</t>
+  </si>
+  <si>
+    <t>.&lt;today() and ((decimal-date-time(.)+294) &gt;= decimal-date-time(today()))</t>
+  </si>
+  <si>
+    <t>Date must be in the previous 42 weeks</t>
+  </si>
+  <si>
+    <t>तारीख पिछले 42 सप्ताह में होना चाहिए</t>
+  </si>
+  <si>
+    <t>Tanggal harus dalam 42 minggu sebelumnya</t>
+  </si>
+  <si>
+    <t>select_one select_lmp_approx</t>
+  </si>
+  <si>
+    <t>g_lmp_approx</t>
+  </si>
+  <si>
+    <t>Approximate start date of last cycle</t>
+  </si>
+  <si>
+    <t>पिछली मासिक के शूरू होने की अंदाज़न तारीख</t>
   </si>
   <si>
     <t xml:space="preserve">Tanggal perkiraan mulai siklus menstruasi terakhir </t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${g_lmp_method},'approx')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g_lmp_date_raw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(selected( ${g_lmp_method},'calendar'),  ${g_lmp_calendar},date-time(decimal-date-time(today()-${g_lmp_approx})))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g_lmp_date_8601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">format-date-time(if(selected( ${g_lmp_method},'calendar'),  ${g_lmp_calendar},date-time(decimal-date-time(today()-${g_lmp_approx}))),"%Y-%m-%d")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g_lmp_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">format-date-time(if(selected(${g_lmp_method},'calendar'), ${g_lmp_calendar},date-time(decimal-date-time(today()-${g_lmp_approx}))),"%b %e, %Y")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g_edd_8601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">format-date-time(date-time(decimal-date-time(${g_lmp_date})+280),"%Y-%m-%dT00:00:00.000Z")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g_edd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">format-date-time(date-time(decimal-date-time(${g_lmp_date})+280),"%b %e, %Y")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g_display_edd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Estimated delivery date is**
+    <t>selected(${g_lmp_method},'approx')</t>
+  </si>
+  <si>
+    <t>g_lmp_date_raw</t>
+  </si>
+  <si>
+    <t>if(selected( ${g_lmp_method},'calendar'),  ${g_lmp_calendar},date-time(decimal-date-time(today()-${g_lmp_approx})))</t>
+  </si>
+  <si>
+    <t>g_lmp_date_8601</t>
+  </si>
+  <si>
+    <t>format-date-time(if(selected( ${g_lmp_method},'calendar'),  ${g_lmp_calendar},date-time(decimal-date-time(today()-${g_lmp_approx}))),"%Y-%m-%d")</t>
+  </si>
+  <si>
+    <t>g_lmp_date</t>
+  </si>
+  <si>
+    <t>format-date-time(if(selected(${g_lmp_method},'calendar'), ${g_lmp_calendar},date-time(decimal-date-time(today()-${g_lmp_approx}))),"%b %e, %Y")</t>
+  </si>
+  <si>
+    <t>g_edd_8601</t>
+  </si>
+  <si>
+    <t>format-date-time(date-time(decimal-date-time(${g_lmp_date})+280),"%Y-%m-%dT00:00:00.000Z")</t>
+  </si>
+  <si>
+    <t>g_edd</t>
+  </si>
+  <si>
+    <t>format-date-time(date-time(decimal-date-time(${g_lmp_date})+280),"%b %e, %Y")</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>g_display_edd</t>
+  </si>
+  <si>
+    <t>**Estimated delivery date is**
 ${g_edd}</t>
   </si>
   <si>
-    <t xml:space="preserve">**डेलिवरी की अपेक्षित तारीख है**
+    <t>**डेलिवरी की अपेक्षित तारीख है**
 ${g_edd}</t>
   </si>
   <si>
-    <t xml:space="preserve">**Tanggal taksiran persalinan adalah** ${g_edd}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${g_edd} != "Invalid Date" and ${g_edd} != ""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group_risk_factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple select_risk_factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g_risk_factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does the woman have any of the following risk factors?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">क्या महिला को इनमें से कोई ख़तरे का कारण है?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apakah wanita memiliki salah satu dari faktor risiko berikut?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not(selected(.,'r1')) or (selected(.,'r1') and not(selected(.,'r2') or selected(.,'r3') or selected(.,'r4')))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please correct conflicting risk factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">कृपया ख़तरे के कारण को सही करें जो असंगत है</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harap perbaiki faktor risiko yang bertentangan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select all that apply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लागू होने वाले सभी का चयन करें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilih semua yang berlaku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group_danger_signs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple select_danger_signs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g_danger_signs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does the woman have any of the following danger signs?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">क्या महिला को इनमें से कोइ खतरे के संकेत है?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apakah wanita memiliki salah satu dari tanda-tanda bahaya berikut?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not(selected( .,'d7') and (decimal-date-time(${lmp_date_8601}) &gt;= decimal-date-time(today())-150))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cannot report less movement for pregnancies under 5 months</t>
+    <t>**Tanggal taksiran persalinan adalah** ${g_edd}</t>
+  </si>
+  <si>
+    <t>${g_edd} != "Invalid Date" and ${g_edd} != ""</t>
+  </si>
+  <si>
+    <t>group_risk_factors</t>
+  </si>
+  <si>
+    <t>select_multiple select_risk_factors</t>
+  </si>
+  <si>
+    <t>g_risk_factors</t>
+  </si>
+  <si>
+    <t>Does the woman have any of the following risk factors?</t>
+  </si>
+  <si>
+    <t>क्या महिला को इनमें से कोई ख़तरे का कारण है?</t>
+  </si>
+  <si>
+    <t>Apakah wanita memiliki salah satu dari faktor risiko berikut?</t>
+  </si>
+  <si>
+    <t>not(selected(.,'r1')) or (selected(.,'r1') and not(selected(.,'r2') or selected(.,'r3') or selected(.,'r4')))</t>
+  </si>
+  <si>
+    <t>Please correct conflicting risk factors</t>
+  </si>
+  <si>
+    <t>कृपया ख़तरे के कारण को सही करें जो असंगत है</t>
+  </si>
+  <si>
+    <t>Harap perbaiki faktor risiko yang bertentangan</t>
+  </si>
+  <si>
+    <t>Select all that apply</t>
+  </si>
+  <si>
+    <t>लागू होने वाले सभी का चयन करें</t>
+  </si>
+  <si>
+    <t>Pilih semua yang berlaku</t>
+  </si>
+  <si>
+    <t>group_danger_signs</t>
+  </si>
+  <si>
+    <t>select_multiple select_danger_signs</t>
+  </si>
+  <si>
+    <t>g_danger_signs</t>
+  </si>
+  <si>
+    <t>Does the woman have any of the following danger signs?</t>
+  </si>
+  <si>
+    <t>क्या महिला को इनमें से कोइ खतरे के संकेत है?</t>
+  </si>
+  <si>
+    <t>Apakah wanita memiliki salah satu dari tanda-tanda bahaya berikut?</t>
+  </si>
+  <si>
+    <t>not(selected( .,'d7') and (decimal-date-time(${lmp_date_8601}) &gt;= decimal-date-time(today())-150))</t>
+  </si>
+  <si>
+    <t>Cannot report less movement for pregnancies under 5 months</t>
   </si>
   <si>
     <t xml:space="preserve">5 महीनों से कम के गर्भावस्था में कम हलचल की शिकायत नहीं की जा सकती है </t>
   </si>
   <si>
-    <t xml:space="preserve">Tidak dapat melaporkan gerakan kurang untuk kehamilan di bawah 5 bulan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g_danger_signs_note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**The woman should be treated immediately if she is experiencing any of these danger signs.**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**अगर महिला इन खतरों के संकेतों में से किसी का सामना कर रही है तो महिला को तुरंत इलाज किया जाना चाहिए.**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Wanita itu harus segera diobati jika dia mengalami salah tanda-tanda bahaya ini.**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group_note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note to CHW about ${patient_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी के लिए नोट ${patient_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catatan ke kader tentang ${patient_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one select_chw_sms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_chw_sms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default SMS to send to CHW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(${g_danger_signs} != '' or ${g_risk_factors} != '',
+    <t>Tidak dapat melaporkan gerakan kurang untuk kehamilan di bawah 5 bulan</t>
+  </si>
+  <si>
+    <t>g_danger_signs_note</t>
+  </si>
+  <si>
+    <t>**The woman should be treated immediately if she is experiencing any of these danger signs.**</t>
+  </si>
+  <si>
+    <t>**अगर महिला इन खतरों के संकेतों में से किसी का सामना कर रही है तो महिला को तुरंत इलाज किया जाना चाहिए.**</t>
+  </si>
+  <si>
+    <t>**Wanita itu harus segera diobati jika dia mengalami salah tanda-tanda bahaya ini.**</t>
+  </si>
+  <si>
+    <t>group_note</t>
+  </si>
+  <si>
+    <t>Note to CHW about ${patient_name}</t>
+  </si>
+  <si>
+    <t>सामुदायिक स्वास्थ्य कर्मी के लिए नोट ${patient_name}</t>
+  </si>
+  <si>
+    <t>Catatan ke kader tentang ${patient_name}</t>
+  </si>
+  <si>
+    <t>select_one select_chw_sms</t>
+  </si>
+  <si>
+    <t>default_chw_sms</t>
+  </si>
+  <si>
+    <t>Default SMS to send to CHW</t>
+  </si>
+  <si>
+    <t>if(${g_danger_signs} != '' or ${g_risk_factors} != '',
       'highrisk',
       'default'
 )</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one select_yes_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_sms_edited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Would you like to edit or add info to the message?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">क्या आप सन्देश में कुछ जोड़ना या बदलना चाहते है?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apakah Anda ingin mengedit atau menambahkan info untuk pesan?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g_chw_sms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The following message can be sent as is or modified to add a personal note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">यह सन्देश ऐसे ही भेजा जा सकता है या आप इस को बदल कर भी भेज सकते है</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesan berikut dapat dikirim sebagai adalah atau dimodifikasi untuk menambahkan catatan pribadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string-length(.) &lt;= 715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your message cannot be longer than 5 SMS messages. Please shorten your message to reduce SMS costs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">आपका सन्देश 5 SMS से ऊपर नहीं हो सकता है | कृपया SMS का मूल्य को कम करने के लिए अपना सन्देश छोटा करें |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesan Anda tidak boleh lebih dari 5 pesan SMS. Persingkat pesan Anda untuk mengurangi biaya SMS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jr:choice-name(${default_chw_sms},'${default_chw_sms}')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message will be sent to ${chw_name} (${chw_phone}). Messages are limited in length to avoid high SMS costs.</t>
+    <t>select_one select_yes_no</t>
+  </si>
+  <si>
+    <t>is_sms_edited</t>
+  </si>
+  <si>
+    <t>क्या आप सन्देश में कुछ जोड़ना या बदलना चाहते है?</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>g_chw_sms</t>
+  </si>
+  <si>
+    <t>यह सन्देश ऐसे ही भेजा जा सकता है या आप इस को बदल कर भी भेज सकते है</t>
+  </si>
+  <si>
+    <t>Pesan berikut dapat dikirim sebagai adalah atau dimodifikasi untuk menambahkan catatan pribadi</t>
+  </si>
+  <si>
+    <t>multiline</t>
+  </si>
+  <si>
+    <t>string-length(.) &lt;= 715</t>
+  </si>
+  <si>
+    <t>Your message cannot be longer than 5 SMS messages. Please shorten your message to reduce SMS costs.</t>
+  </si>
+  <si>
+    <t>आपका सन्देश 5 SMS से ऊपर नहीं हो सकता है | कृपया SMS का मूल्य को कम करने के लिए अपना सन्देश छोटा करें |</t>
+  </si>
+  <si>
+    <t>Pesan Anda tidak boleh lebih dari 5 pesan SMS. Persingkat pesan Anda untuk mengurangi biaya SMS.</t>
+  </si>
+  <si>
+    <t>jr:choice-name(${default_chw_sms},'${default_chw_sms}')</t>
+  </si>
+  <si>
+    <t>Message will be sent to ${chw_name} (${chw_phone}). Messages are limited in length to avoid high SMS costs.</t>
   </si>
   <si>
     <t xml:space="preserve">संदेश ${chw_name} (${chw_phone}) को भेजा जाएगा। एसएमएस के लागत से बचने के लिए संदेश छोटा हैं </t>
   </si>
   <si>
-    <t xml:space="preserve">Pesan akan dikirim ke ${chw_name} (${chw_phone}). Pesan dibatasi panjang untuk menghindari biaya SMS yang tinggi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group_review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;Be sure you Submit to complete this action.&lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt; सुनिश्चित करें के यह कार्रवाई पूरा करने के लिए आप सबमिट दबाये | &lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;Pastikan anda sudah mengirim untuk menyelesaikan tindakan ini.&lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pregnancy Details&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">गर्भावस्था का विवरण&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kehamilan rincian&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 yellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_patient_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../inputs/contact/patient_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_pregnancy_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**${patient_name}**
+    <t>Pesan akan dikirim ke ${chw_name} (${chw_phone}). Pesan dibatasi panjang untuk menghindari biaya SMS yang tinggi.</t>
+  </si>
+  <si>
+    <t>group_review</t>
+  </si>
+  <si>
+    <t>field-list summary</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="text-align:center;"&gt;Be sure you Submit to complete this action.&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="text-align:center;"&gt; सुनिश्चित करें के यह कार्रवाई पूरा करने के लिए आप सबमिट दबाये | &lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="text-align:center;"&gt;Pastikan anda sudah mengirim untuk menyelesaikan tindakan ini.&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>r_summary</t>
+  </si>
+  <si>
+    <t>Pregnancy Details&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>गर्भावस्था का विवरण&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Kehamilan rincian&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>h1 yellow</t>
+  </si>
+  <si>
+    <t>r_patient_id</t>
+  </si>
+  <si>
+    <t>../../inputs/contact/patient_id</t>
+  </si>
+  <si>
+    <t>r_pregnancy_details</t>
+  </si>
+  <si>
+    <t>**${patient_name}**
 ID: ${r_patient_id}
 Estimated delivery date: ${g_edd}</t>
   </si>
   <si>
-    <t xml:space="preserve">**${patient_name}**
+    <t>**${patient_name}**
 आईडी: ${r_patient_id}
 डेलिवरी की अपेक्षित तारीख है: ${g_edd}</t>
   </si>
   <si>
-    <t xml:space="preserve">**${patient_name}**
+    <t>**${patient_name}**
 ID: ${r_patient_id}
 Tanggal taksiran persalinan: ${g_edd}</t>
   </si>
   <si>
-    <t xml:space="preserve">h4 center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_risk_factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${g_risk_factors} !='' or (${date_of_birth}!='' and (${patient_age_at_lmp} &lt; 18 or ${patient_age_at_lmp} &gt;= 35))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h2 yellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_risk_factor1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First pregnancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्रथम गर्भावस्था</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kehamilan pertama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${g_risk_factors}, 'r1')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_risk_factor2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More than 4 children</t>
+    <t>h4 center</t>
+  </si>
+  <si>
+    <t>r_risk_factors</t>
+  </si>
+  <si>
+    <t>${g_risk_factors} !='' or (${date_of_birth}!='' and (${patient_age_at_lmp} &lt; 18 or ${patient_age_at_lmp} &gt;= 35))</t>
+  </si>
+  <si>
+    <t>h2 yellow</t>
+  </si>
+  <si>
+    <t>r_risk_factor1</t>
+  </si>
+  <si>
+    <t>First pregnancy</t>
+  </si>
+  <si>
+    <t>प्रथम गर्भावस्था</t>
+  </si>
+  <si>
+    <t>Kehamilan pertama</t>
+  </si>
+  <si>
+    <t>selected(${g_risk_factors}, 'r1')</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>r_risk_factor2</t>
+  </si>
+  <si>
+    <t>More than 4 children</t>
   </si>
   <si>
     <t xml:space="preserve">चार बच्चों से ज़्यादा </t>
   </si>
   <si>
-    <t xml:space="preserve">Lebih dari 4 anak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${g_risk_factors}, 'r2')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_risk_factor3</t>
+    <t>Lebih dari 4 anak</t>
+  </si>
+  <si>
+    <t>selected(${g_risk_factors}, 'r2')</t>
+  </si>
+  <si>
+    <t>r_risk_factor3</t>
   </si>
   <si>
     <t xml:space="preserve">Last baby born less than 1 year before </t>
   </si>
   <si>
-    <t xml:space="preserve">अंतिम बच्चा 1 वर्ष से कम समय पहले पैदा हुआ था</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bayi terakhir lahir kurang dari 1 tahun sebelumnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${g_risk_factors}, 'r3')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_risk_factor4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Had previous miscarriages or previous difficulties in childbirth</t>
+    <t>अंतिम बच्चा 1 वर्ष से कम समय पहले पैदा हुआ था</t>
+  </si>
+  <si>
+    <t>Bayi terakhir lahir kurang dari 1 tahun sebelumnya</t>
+  </si>
+  <si>
+    <t>selected(${g_risk_factors}, 'r3')</t>
+  </si>
+  <si>
+    <t>r_risk_factor4</t>
+  </si>
+  <si>
+    <t>Had previous miscarriages or previous difficulties in childbirth</t>
   </si>
   <si>
     <t xml:space="preserve">पिछली गर्भावस्था या गर्भपात में कोई कठिनाइयाँ </t>
   </si>
   <si>
-    <t xml:space="preserve">Mengalami keguguran sebelumnya atau kesulitan sebelumnya saat melahirkan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${g_risk_factors}, 'r4')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_risk_factor5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of the following conditions: heart conditions, asthma, high blood pressure, known diabetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">निम्न कारणों में से एक: दिल की बीमारी, अस्थमा, ब्लड प्रेशर, या डायबिटीज</t>
+    <t>Mengalami keguguran sebelumnya atau kesulitan sebelumnya saat melahirkan</t>
+  </si>
+  <si>
+    <t>selected(${g_risk_factors}, 'r4')</t>
+  </si>
+  <si>
+    <t>r_risk_factor5</t>
+  </si>
+  <si>
+    <t>One of the following conditions: heart conditions, asthma, high blood pressure, known diabetes</t>
+  </si>
+  <si>
+    <t>निम्न कारणों में से एक: दिल की बीमारी, अस्थमा, ब्लड प्रेशर, या डायबिटीज</t>
   </si>
   <si>
     <t xml:space="preserve">Salah satu kondisi berikut: kondisi jantung, asma, tekanan darah tinggi, diketahui diabetes </t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${g_risk_factors}, 'r5')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_risk_factor6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV पॉजिटिव</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV positif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${g_risk_factors}, 'r6')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_risk_factor7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under 18 years old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 साल से कम उम्र के</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di bawah 18 tahun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${date_of_birth}!='' and ${patient_age_at_lmp} &lt; 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_risk_factor8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over 35 years old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 साल से अधिक</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebih dari 35 tahun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${date_of_birth}!='' and ${patient_age_at_lmp} &gt;= 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_referral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refer to a health facility&lt;i class="fa fa-warning"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">उसे स्वास्थ्य केंद्र भेजें।&lt;i class="fa fa-warning"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merujuk ke fasilitas kesehatan&lt;i class="fa fa-warning"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${g_danger_signs} != ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_referral_note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Refer to the health facility for danger signs.&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;खतरे की सूचना होने पर उसे स्वास्थ्य केंद्र भेजें.&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Merujuk ke fasilitas kesehatan untuk tanda bahaya.&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_danger_sign1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pain or cramping in abdomen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पेट में दर्द, दबाव या ऐंठन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyeri, tekanan atau kram di perut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${g_danger_signs}, 'd1')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_danger_sign2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bleeding or fluid leaking from vagina or vaginal discharge with bad odour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">योनि से खून या द्रव पदार्थ का बहाव, या खराब बू के साथ योनि से बहाव</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perdarahan atau cairan merembes dari vagina atau mengalir dari vagina dengan bau busuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${g_danger_signs}, 'd2')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_danger_sign3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Severe nausea or vomiting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">गंभीर उबकाई या उल्टी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parah mual atau muntah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${g_danger_signs}, 'd3')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_danger_sign4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fever of 38 degrees or higher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38 डिग्री या अधिक का बुखार</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demam 38 derajat atau lebih tinggi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${g_danger_signs}, 'd4')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_danger_sign5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Severe headache or new, blurry vision problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">गंभीर सिरदर्द या नए, धुंधली दृष्टि की समस्याएं</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parah sakit kepala atau baru, masalah penglihatan kabur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${g_danger_signs}, 'd5')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_danger_sign6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudden weight gain or severe swelling of feet, ankles, face, or hands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अचानक वजन का बढ़ना या पैर, टखनों, चेहरे या हाथों में गंभीर सूजन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lonjakan berat badan atau berat pembengkakan kaki, pergelangan kaki, wajah, atau tangan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${g_danger_signs}, 'd6')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_danger_sign7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less movement and kicking from the baby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बच्चे का कम हिलना या लात मारना</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurang gerak dan menendang dari bayi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${g_danger_signs}, 'd7')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_danger_sign8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood in the urine or painful, burning urination</t>
+    <t>selected(${g_risk_factors}, 'r5')</t>
+  </si>
+  <si>
+    <t>r_risk_factor6</t>
+  </si>
+  <si>
+    <t>HIV positive</t>
+  </si>
+  <si>
+    <t>HIV पॉजिटिव</t>
+  </si>
+  <si>
+    <t>HIV positif</t>
+  </si>
+  <si>
+    <t>selected(${g_risk_factors}, 'r6')</t>
+  </si>
+  <si>
+    <t>r_risk_factor7</t>
+  </si>
+  <si>
+    <t>Under 18 years old</t>
+  </si>
+  <si>
+    <t>18 साल से कम उम्र के</t>
+  </si>
+  <si>
+    <t>Di bawah 18 tahun</t>
+  </si>
+  <si>
+    <t>${date_of_birth}!='' and ${patient_age_at_lmp} &lt; 18</t>
+  </si>
+  <si>
+    <t>r_risk_factor8</t>
+  </si>
+  <si>
+    <t>Over 35 years old</t>
+  </si>
+  <si>
+    <t>35 साल से अधिक</t>
+  </si>
+  <si>
+    <t>Lebih dari 35 tahun</t>
+  </si>
+  <si>
+    <t>${date_of_birth}!='' and ${patient_age_at_lmp} &gt;= 35</t>
+  </si>
+  <si>
+    <t>r_referral</t>
+  </si>
+  <si>
+    <t>Refer to a health facility&lt;i class="fa fa-warning"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>उसे स्वास्थ्य केंद्र भेजें।&lt;i class="fa fa-warning"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Merujuk ke fasilitas kesehatan&lt;i class="fa fa-warning"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>${g_danger_signs} != ''</t>
+  </si>
+  <si>
+    <t>h1 red</t>
+  </si>
+  <si>
+    <t>r_referral_note</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Refer to the health facility for danger signs.&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;खतरे की सूचना होने पर उसे स्वास्थ्य केंद्र भेजें.&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Merujuk ke fasilitas kesehatan untuk tanda bahaya.&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>r_danger_sign1</t>
+  </si>
+  <si>
+    <t>Pain or cramping in abdomen</t>
+  </si>
+  <si>
+    <t>पेट में दर्द, दबाव या ऐंठन</t>
+  </si>
+  <si>
+    <t>Nyeri, tekanan atau kram di perut</t>
+  </si>
+  <si>
+    <t>selected(${g_danger_signs}, 'd1')</t>
+  </si>
+  <si>
+    <t>r_danger_sign2</t>
+  </si>
+  <si>
+    <t>Bleeding or fluid leaking from vagina or vaginal discharge with bad odour</t>
+  </si>
+  <si>
+    <t>योनि से खून या द्रव पदार्थ का बहाव, या खराब बू के साथ योनि से बहाव</t>
+  </si>
+  <si>
+    <t>Perdarahan atau cairan merembes dari vagina atau mengalir dari vagina dengan bau busuk</t>
+  </si>
+  <si>
+    <t>selected(${g_danger_signs}, 'd2')</t>
+  </si>
+  <si>
+    <t>r_danger_sign3</t>
+  </si>
+  <si>
+    <t>Severe nausea or vomiting</t>
+  </si>
+  <si>
+    <t>गंभीर उबकाई या उल्टी</t>
+  </si>
+  <si>
+    <t>Parah mual atau muntah</t>
+  </si>
+  <si>
+    <t>selected(${g_danger_signs}, 'd3')</t>
+  </si>
+  <si>
+    <t>r_danger_sign4</t>
+  </si>
+  <si>
+    <t>Fever of 38 degrees or higher</t>
+  </si>
+  <si>
+    <t>38 डिग्री या अधिक का बुखार</t>
+  </si>
+  <si>
+    <t>Demam 38 derajat atau lebih tinggi</t>
+  </si>
+  <si>
+    <t>selected(${g_danger_signs}, 'd4')</t>
+  </si>
+  <si>
+    <t>r_danger_sign5</t>
+  </si>
+  <si>
+    <t>Severe headache or new, blurry vision problems</t>
+  </si>
+  <si>
+    <t>गंभीर सिरदर्द या नए, धुंधली दृष्टि की समस्याएं</t>
+  </si>
+  <si>
+    <t>Parah sakit kepala atau baru, masalah penglihatan kabur</t>
+  </si>
+  <si>
+    <t>selected(${g_danger_signs}, 'd5')</t>
+  </si>
+  <si>
+    <t>r_danger_sign6</t>
+  </si>
+  <si>
+    <t>Sudden weight gain or severe swelling of feet, ankles, face, or hands</t>
+  </si>
+  <si>
+    <t>अचानक वजन का बढ़ना या पैर, टखनों, चेहरे या हाथों में गंभीर सूजन</t>
+  </si>
+  <si>
+    <t>Lonjakan berat badan atau berat pembengkakan kaki, pergelangan kaki, wajah, atau tangan</t>
+  </si>
+  <si>
+    <t>selected(${g_danger_signs}, 'd6')</t>
+  </si>
+  <si>
+    <t>r_danger_sign7</t>
+  </si>
+  <si>
+    <t>Less movement and kicking from the baby</t>
+  </si>
+  <si>
+    <t>बच्चे का कम हिलना या लात मारना</t>
+  </si>
+  <si>
+    <t>Kurang gerak dan menendang dari bayi</t>
+  </si>
+  <si>
+    <t>selected(${g_danger_signs}, 'd7')</t>
+  </si>
+  <si>
+    <t>r_danger_sign8</t>
+  </si>
+  <si>
+    <t>Blood in the urine or painful, burning urination</t>
   </si>
   <si>
     <t xml:space="preserve">पेशाब में खून या दर्दनाक, जलता हुआ पेशाब
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Darah dalam urin atau menyakitkan, terbakar buang air kecil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${g_danger_signs}, 'd8')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_danger_sign9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diarrhea that doesn't go away</t>
-  </si>
-  <si>
-    <t xml:space="preserve">दस्त जो कम नहीं होता</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diare yang tidak mengurangi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${g_danger_signs}, 'd9')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_reminders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Healthy Pregnancy Tips&lt;i class="fa fa-heart"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वस्थ्य गर्भावस्था के सुझाव &lt;i class="fa fa-heart"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tips kehamilan sehat&lt;i class="fa fa-heart"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_reminder_trim1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remind woman of the **6 STEPS TO A HEALTHY PREGNANCY:**
+    <t>Darah dalam urin atau menyakitkan, terbakar buang air kecil</t>
+  </si>
+  <si>
+    <t>selected(${g_danger_signs}, 'd8')</t>
+  </si>
+  <si>
+    <t>r_danger_sign9</t>
+  </si>
+  <si>
+    <t>Diarrhea that doesn't go away</t>
+  </si>
+  <si>
+    <t>दस्त जो कम नहीं होता</t>
+  </si>
+  <si>
+    <t>Diare yang tidak mengurangi</t>
+  </si>
+  <si>
+    <t>selected(${g_danger_signs}, 'd9')</t>
+  </si>
+  <si>
+    <t>r_reminders</t>
+  </si>
+  <si>
+    <t>Healthy Pregnancy Tips&lt;i class="fa fa-heart"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>स्वस्थ्य गर्भावस्था के सुझाव &lt;i class="fa fa-heart"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Tips kehamilan sehat&lt;i class="fa fa-heart"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>h1 blue</t>
+  </si>
+  <si>
+    <t>r_reminder_trim1</t>
+  </si>
+  <si>
+    <t>Remind woman of the **6 STEPS TO A HEALTHY PREGNANCY:**
     &lt;ol style="margin-left:1em; list-style: decimal inside;"&gt;&lt;li&gt;Attend regular ANC visits&lt;/li&gt;&lt;li&gt;Sleep under a treated net **every** night&lt;/li&gt;&lt;li&gt;${patient_name} is in her **first trimester**. Remind her to take supplements:&lt;ul style="margin-left:1em; list-style: disc inside;"&gt;&lt;li&gt;_Take Iron Folate daily_&lt;/li&gt;&lt;/ul&gt;&lt;/li&gt;&lt;li&gt;Eat well: Eat more often than usual and eat a variety of foods to give you strength and to help your baby grow&lt;/li&gt;&lt;li&gt;Deliver your child at a health center&lt;/li&gt;&lt;li&gt;Breastfeed the baby **immediately** after birth&lt;/ol&gt;</t>
   </si>
   <si>
@@ -1076,17 +1063,17 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Mengingatkan wanita tentang ** 6 LANGKAH A KEHAMILAN SEHAT: **
+    <t>Mengingatkan wanita tentang ** 6 LANGKAH A KEHAMILAN SEHAT: **
 &lt;ol style="margin-left:1em; list-style: decimal inside;"&gt;&lt;li&gt;Datang untuk kunjungan ANC Rutin&lt;/li&gt;&lt;li&gt;Tidur menggunakan kelambu berinsektisida  **setiap** malam&lt;/li&gt;&lt;li&gt;${patient_name} sedang  di **trimester pertama nya**. Ingatkan dia untuk mengambil suplemen:&lt;ul style="margin-left:1em; list-style: disc inside;"&gt;&lt;li&gt;_ Ambil Besi Folat harian_&lt;/li&gt;&lt;/ul&gt;&lt;/li&gt;&lt;li&gt;Makan dengan baik: Makan lebih  sering dari biasanya dan makan beragam  makanan untuk memberi mu  kekuatan dan untuk membantu bayi Anda tumbuh&lt;/li&gt;&lt;li&gt;Melahirkan bayi di fasilitas kesehatan&lt;/li&gt;&lt;li&gt;Menyusui bayi **segera setelah lahir**&lt;/ol&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">(${weeks_since_lmp} &lt;= 12) and (${weeks_since_lmp} &gt; 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_reminder_trim2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remind woman of the **6 STEPS TO A HEALTHY PREGNANCY:**
+    <t>(${weeks_since_lmp} &lt;= 12) and (${weeks_since_lmp} &gt; 0)</t>
+  </si>
+  <si>
+    <t>r_reminder_trim2</t>
+  </si>
+  <si>
+    <t>Remind woman of the **6 STEPS TO A HEALTHY PREGNANCY:**
     &lt;ol style="margin-left:1em; list-style: decimal inside;"&gt;&lt;li&gt;Attend regular ANC visits&lt;/li&gt;&lt;li&gt;Sleep under a treated net **every** night&lt;/li&gt;&lt;li&gt;${patient_name} is in her **second trimester**. Remind her to take supplements:&lt;ul style="margin-left:1em; list-style: disc inside;"&gt;&lt;li&gt;_Take Iron Folate daily_&lt;/li&gt;&lt;li&gt;_Take Deworming/Albendazole once_&lt;/li&gt;&lt;li&gt;_Take Malaria Prophylaxis/Fansidar every month_&lt;/li&gt;&lt;/ul&gt;&lt;/li&gt;&lt;li&gt;Eat well: Eat more often than usual and eat a variety of foods to give you strength and to help your baby grow&lt;/li&gt;&lt;li&gt;Deliver your child at a health center&lt;/li&gt;&lt;li&gt;Breastfeed the baby **immediately** after birth&lt;/ol&gt;</t>
   </si>
   <si>
@@ -1099,13 +1086,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">(${weeks_since_lmp} &lt;= 27) and (${weeks_since_lmp} &gt; 12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_reminder_trim3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remind woman of the **6 STEPS TO A HEALTHY PREGNANCY:**
+    <t>(${weeks_since_lmp} &lt;= 27) and (${weeks_since_lmp} &gt; 12)</t>
+  </si>
+  <si>
+    <t>r_reminder_trim3</t>
+  </si>
+  <si>
+    <t>Remind woman of the **6 STEPS TO A HEALTHY PREGNANCY:**
     &lt;ol style="margin-left:1em; list-style: decimal inside;"&gt;&lt;li&gt;Attend regular ANC visits&lt;/li&gt;&lt;li&gt;Sleep under a treated net **every** night&lt;/li&gt;&lt;li&gt;${patient_name} is in her **third trimester**. Remind her to take supplements:&lt;ul style="margin-left:1em; list-style: disc inside;"&gt;&lt;li&gt;_Take Iron Folate daily_&lt;/li&gt;&lt;li&gt;_Take Deworming/Albendazole once_&lt;/li&gt;&lt;li&gt;_Take Malaria Prophylaxis/Fansidar every month_&lt;/li&gt;&lt;/ul&gt;&lt;/li&gt;&lt;li&gt;Eat well: Eat more often than usual and eat a variety of foods to give you strength and to help your baby grow&lt;/li&gt;&lt;li&gt;Deliver your child at a health center&lt;/li&gt;&lt;li&gt;Breastfeed the baby **immediately** after birth. Do NOT give baby anything else to eat or drink.&lt;/ol&gt;</t>
   </si>
   <si>
@@ -1113,375 +1100,417 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Mengingatkan wanita tentang ** 6 LANGKAH A KEHAMILAN SEHAT: **
+    <t>Mengingatkan wanita tentang ** 6 LANGKAH A KEHAMILAN SEHAT: **
 &lt;ol style="margin-left:1em; list-style: decimal inside;"&gt;&lt;li&gt;Datang untuk kunjungan ANC Rutin&lt;/li&gt;&lt;li&gt;Tidur menggunakan kelambu berinsektisida  **setiap** malam&lt;/li&gt;&lt;li&gt;${patient_name} sedang di **trimester ketiga nya**. Ingatkan dia untuk mengambil suplemen:&lt;ul style="margin-left:1em; list-style: disc inside;"&gt;&lt;li&gt;_Ambil Besi Folat harian_&lt;/li&gt;&lt;li&gt;_Mengambil deworming/ albendazole sekali_&lt;/li&gt;&lt;li&gt;_Mengambil Malaria Profilaksis / Fansidar setiap bulan_&lt;/li&gt;&lt;/ul&gt;&lt;/li&gt;&lt;li&gt;Makan dengan baik: Makan lebih  sering dari biasanya dan makan beragam  makanan untuk memberi mu  kekuatan dan untuk membantu bayi Anda tumbuh&lt;/li&gt;&lt;li&gt;Melahirkan bayi di fasilitas kesehatan&lt;/li&gt;&lt;li&gt;Menyusui bayi **segera setelah lahir**. Tidak memberikan bayi apa-apa lagi untuk dimakan atau diminum.&lt;/ol&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">${weeks_since_lmp} &gt; 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_followup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow Up Message &lt;i class="fa fa-envelope"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सुनिश्चित करने के लिए सन्देश &lt;i class="fa fa-envelope"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow Up Pesan &lt;i class="fa fa-envelope"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${g_chw_sms} != ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_followup_note1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**The following will be sent as a SMS to ${chw_name} ${chw_phone}**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">** ये SMS के रूप में ${chw_name} ${chw_phone} को भेजा जायेगा **</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Berikut ini akan dikirim sebagai SMS ke ${chw_name} ${chw_phone}**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_followup_note2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_yes_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">हाँ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नहीं</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tidak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_risk_factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r1</t>
+    <t>${weeks_since_lmp} &gt; 27</t>
+  </si>
+  <si>
+    <t>r_followup</t>
+  </si>
+  <si>
+    <t>Follow Up Message &lt;i class="fa fa-envelope"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>सुनिश्चित करने के लिए सन्देश &lt;i class="fa fa-envelope"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Follow Up Pesan &lt;i class="fa fa-envelope"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>h1 green</t>
+  </si>
+  <si>
+    <t>r_followup_note1</t>
+  </si>
+  <si>
+    <t>**The following will be sent as a SMS to ${chw_name} ${chw_phone}**</t>
+  </si>
+  <si>
+    <t>** ये SMS के रूप में ${chw_name} ${chw_phone} को भेजा जायेगा **</t>
+  </si>
+  <si>
+    <t>**Berikut ini akan dikirim sebagai SMS ke ${chw_name} ${chw_phone}**</t>
+  </si>
+  <si>
+    <t>r_followup_note2</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>select_yes_no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>हाँ</t>
+  </si>
+  <si>
+    <t>Iya</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>नहीं</t>
+  </si>
+  <si>
+    <t>Tidak</t>
+  </si>
+  <si>
+    <t>select_risk_factors</t>
+  </si>
+  <si>
+    <t>r1</t>
   </si>
   <si>
     <t xml:space="preserve">First pregnancy </t>
   </si>
   <si>
-    <t xml:space="preserve">r2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 से अधिक बच्चों</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has any of the following conditions: 
+    <t>r2</t>
+  </si>
+  <si>
+    <t>4 से अधिक बच्चों</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
+    <t>r4</t>
+  </si>
+  <si>
+    <t>r5</t>
+  </si>
+  <si>
+    <t>Has any of the following conditions: 
 heart conditions, asthma, high blood pressure, known diabetes</t>
   </si>
   <si>
-    <t xml:space="preserve">r6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_danger_signs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mual muntah berat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_lmp_approx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">up to 2 months ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 महीने पहले तक</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hingga 2 bulan yang lalu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">up to 3 months ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 महीने पहले तक</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hingga 3 bulan yang lalu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">up to 4 months ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 महीने पहले तक</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hingga 4 bulan yang lalu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">between 5 to 6 months ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 से 6 महीने पहले</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beween 5 sampai 6 bulan yang lalu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">between 7 to 8 months ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 से 8 महीने पहले</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beween 7 sampai 8 bulan yang lalu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_lmp_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_chw_sms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi ${chw_name}, a pregnancy for ${patient_name} (${r_patient_id}) has been registered at the facility. You will receive ANC notifications for this patient. Please follow up to identify the patient. Thank you!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नमस्ते ${chw_name}, ${patient_name} (${r_patient_id}) के लिए स्वास्थ्य केंद्र में गर्भावस्था दर्ज की गयी है | आपको इस मरीज़ के लिए एएनसी सन्देश मिलेंगे | कृपया मरीज़ को पहचाने | धन्यवाद!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halo ${chw_name}, kehamilan untuk ${patient_name} (${r_patient_id}) telah mendaftarkan di fasilitas. Anda akan menerima pemberitahuan ANC untuk pasien ini. Silahkan tindak lanjut untuk mengidentifikasi pasien. Terima kasih!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">highrisk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi ${chw_name}, a pregnancy with danger signs for ${patient_name} (${r_patient_id}) has been registered by the health facility. This is a high-risk pregnancy. You will receive ANC notifications for this patient. Please follow up with the nurse to identify the patient. Thank you!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नमस्ते ${chw_name}, ${patient_name} (${r_patient_id}) के लिए स्वास्थ्य केंद्र में एक खतरे के संकेत वाला गर्भावस्था दर्ज की गयी है | यह एक जोखिम वाला गर्भावस्था है | आपको इस मरीज़ के लिए एएनसी सन्देश मिलेंगे | कृपया नर्स के साथ मिल के मरीज़ को पहचाने | धन्यवाद!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halo ${chw_name}, 
+    <t>r6</t>
+  </si>
+  <si>
+    <t>select_danger_signs</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>Mual muntah berat</t>
+  </si>
+  <si>
+    <t>d4</t>
+  </si>
+  <si>
+    <t>d5</t>
+  </si>
+  <si>
+    <t>d6</t>
+  </si>
+  <si>
+    <t>d7</t>
+  </si>
+  <si>
+    <t>d8</t>
+  </si>
+  <si>
+    <t>d9</t>
+  </si>
+  <si>
+    <t>select_lmp_approx</t>
+  </si>
+  <si>
+    <t>up to 2 months ago</t>
+  </si>
+  <si>
+    <t>2 महीने पहले तक</t>
+  </si>
+  <si>
+    <t>Hingga 2 bulan yang lalu</t>
+  </si>
+  <si>
+    <t>up to 3 months ago</t>
+  </si>
+  <si>
+    <t>3 महीने पहले तक</t>
+  </si>
+  <si>
+    <t>Hingga 3 bulan yang lalu</t>
+  </si>
+  <si>
+    <t>up to 4 months ago</t>
+  </si>
+  <si>
+    <t>4 महीने पहले तक</t>
+  </si>
+  <si>
+    <t>Hingga 4 bulan yang lalu</t>
+  </si>
+  <si>
+    <t>between 5 to 6 months ago</t>
+  </si>
+  <si>
+    <t>5 से 6 महीने पहले</t>
+  </si>
+  <si>
+    <t>Beween 5 sampai 6 bulan yang lalu</t>
+  </si>
+  <si>
+    <t>between 7 to 8 months ago</t>
+  </si>
+  <si>
+    <t>7 से 8 महीने पहले</t>
+  </si>
+  <si>
+    <t>Beween 7 sampai 8 bulan yang lalu</t>
+  </si>
+  <si>
+    <t>select_lmp_method</t>
+  </si>
+  <si>
+    <t>approx</t>
+  </si>
+  <si>
+    <t>select_chw_sms</t>
+  </si>
+  <si>
+    <t>Hi ${chw_name}, a pregnancy for ${patient_name} (${r_patient_id}) has been registered at the facility. You will receive ANC notifications for this patient. Please follow up to identify the patient. Thank you!</t>
+  </si>
+  <si>
+    <t>नमस्ते ${chw_name}, ${patient_name} (${r_patient_id}) के लिए स्वास्थ्य केंद्र में गर्भावस्था दर्ज की गयी है | आपको इस मरीज़ के लिए एएनसी सन्देश मिलेंगे | कृपया मरीज़ को पहचाने | धन्यवाद!</t>
+  </si>
+  <si>
+    <t>Halo ${chw_name}, kehamilan untuk ${patient_name} (${r_patient_id}) telah mendaftarkan di fasilitas. Anda akan menerima pemberitahuan ANC untuk pasien ini. Silahkan tindak lanjut untuk mengidentifikasi pasien. Terima kasih!</t>
+  </si>
+  <si>
+    <t>highrisk</t>
+  </si>
+  <si>
+    <t>Hi ${chw_name}, a pregnancy with danger signs for ${patient_name} (${r_patient_id}) has been registered by the health facility. This is a high-risk pregnancy. You will receive ANC notifications for this patient. Please follow up with the nurse to identify the patient. Thank you!</t>
+  </si>
+  <si>
+    <t>नमस्ते ${chw_name}, ${patient_name} (${r_patient_id}) के लिए स्वास्थ्य केंद्र में एक खतरे के संकेत वाला गर्भावस्था दर्ज की गयी है | यह एक जोखिम वाला गर्भावस्था है | आपको इस मरीज़ के लिए एएनसी सन्देश मिलेंगे | कृपया नर्स के साथ मिल के मरीज़ को पहचाने | धन्यवाद!</t>
+  </si>
+  <si>
+    <t>Halo ${chw_name}, 
 kehamilan dengan tanda-tanda bahaya untuk ${patient_name} (${r_patient_id}) telah didaftarkan di fasilitas kesehatan. Ini adalah kehamilan dengan resiko tinggi. Anda akan menerima sms pemberitahuan tentang  jadwal pemeriksaan (ANC) untuk pasien ini. Silahkan menghubungi bidan anda untuk tindakan selanjutnya.Terima kasih!</t>
   </si>
   <si>
-    <t xml:space="preserve">form_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Pregnancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pregnancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en</t>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
+    <t>New Pregnancy</t>
+  </si>
+  <si>
+    <t>pregnancy</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>You can add a personal note to the SMS here:</t>
+  </si>
+  <si>
+    <t>Would you like to add a personal note to the message?</t>
+  </si>
+  <si>
+    <t>**The following message will be sent to ${chw_name} (${chw_phone}):**
+${default_chw_sms_text}</t>
+  </si>
+  <si>
+    <t>default_chw_sms_text</t>
+  </si>
+  <si>
+    <t>default_chw_sms_note</t>
+  </si>
+  <si>
+    <t>**यह सन्देश ऐसे ही भेजा जा सकता है या आप इस को बदल कर भी भेज सकते है**
+${default_chw_sms_text}</t>
+  </si>
+  <si>
+    <t>**Pesan berikut dapat dikirim sebagai adalah atau dimodifikasi untuk menambahkan catatan pribadi**
+${default_chw_sms_text}</t>
+  </si>
+  <si>
+    <t>Apakah anda ingin mengedit atau menambahkan info untuk pesan?</t>
+  </si>
+  <si>
+    <t>&lt;div style="white-space: pre-wrap"&gt;${chw_sms}&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>${chw_sms} != ''</t>
+  </si>
+  <si>
+    <t>if(${g_chw_sms} != '', concat(${default_chw_sms_text},concat('
+',${g_chw_sms})), ${default_chw_sms_text})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF833C0B"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF833C0C"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFBF9000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF8EAADB"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF2E75B5"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF548135"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF38761D"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF4472C4"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF8EAADB"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="Inherit"/>
-      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF833C0B"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1560,9 +1589,27 @@
         <bgColor rgb="FF8EAADB"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1570,405 +1617,201 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="97">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="91">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2027,53 +1870,379 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF212121"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR1048576"/>
+  <dimension ref="A1:AR96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="U6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="68.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="32.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="14" style="0" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="42.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="26.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="28.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="26" style="0" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="7.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="31" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="41" style="0" width="13.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="45" style="0" width="15.13"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" customWidth="1"/>
+    <col min="5" max="5" width="68.33203125" customWidth="1"/>
+    <col min="6" max="9" width="32.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" customWidth="1"/>
+    <col min="14" max="20" width="20.83203125" customWidth="1"/>
+    <col min="21" max="21" width="42.6640625" customWidth="1"/>
+    <col min="22" max="22" width="8.1640625" customWidth="1"/>
+    <col min="23" max="23" width="15.83203125" customWidth="1"/>
+    <col min="24" max="24" width="26.5" customWidth="1"/>
+    <col min="25" max="25" width="28.1640625" customWidth="1"/>
+    <col min="26" max="29" width="15.83203125" customWidth="1"/>
+    <col min="30" max="30" width="7.6640625" customWidth="1"/>
+    <col min="31" max="40" width="6.83203125" customWidth="1"/>
+    <col min="41" max="44" width="13.33203125" customWidth="1"/>
+    <col min="45" max="1025" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:44" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2179,7 +2348,7 @@
       <c r="AQ1" s="11"/>
       <c r="AR1" s="11"/>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:44" ht="13.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
@@ -2239,9 +2408,9 @@
       <c r="AQ2" s="12"/>
       <c r="AR2" s="12"/>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>37</v>
+    <row r="3" spans="1:44" ht="13.5" customHeight="1">
+      <c r="A3" s="91" t="s">
+        <v>39</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>38</v>
@@ -2255,9 +2424,7 @@
       <c r="I3" s="19"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
-      <c r="L3" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="13"/>
       <c r="O3" s="14"/>
@@ -2266,9 +2433,7 @@
       <c r="R3" s="17"/>
       <c r="S3" s="18"/>
       <c r="T3" s="19"/>
-      <c r="U3" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="U3" s="12"/>
       <c r="V3" s="12"/>
       <c r="W3" s="13"/>
       <c r="X3" s="21"/>
@@ -2278,7 +2443,7 @@
       <c r="AB3" s="18"/>
       <c r="AC3" s="19"/>
       <c r="AD3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
@@ -2295,12 +2460,12 @@
       <c r="AQ3" s="12"/>
       <c r="AR3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>37</v>
+    <row r="4" spans="1:44" ht="13.5" customHeight="1">
+      <c r="A4" s="91" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="25"/>
@@ -2311,9 +2476,7 @@
       <c r="I4" s="19"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
-      <c r="L4" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="L4" s="23"/>
       <c r="M4" s="12"/>
       <c r="N4" s="13"/>
       <c r="O4" s="14"/>
@@ -2322,9 +2485,7 @@
       <c r="R4" s="17"/>
       <c r="S4" s="18"/>
       <c r="T4" s="19"/>
-      <c r="U4" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="U4" s="12"/>
       <c r="V4" s="12"/>
       <c r="W4" s="13"/>
       <c r="X4" s="21"/>
@@ -2349,12 +2510,12 @@
       <c r="AQ4" s="12"/>
       <c r="AR4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:44" ht="13.5" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
@@ -2399,32 +2560,32 @@
       <c r="AQ5" s="12"/>
       <c r="AR5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:44" ht="13.5" customHeight="1">
+      <c r="A6" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
       <c r="J6" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="13"/>
@@ -2437,13 +2598,13 @@
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
       <c r="W6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="X6" s="21" t="s">
+      <c r="Y6" s="28" t="s">
         <v>52</v>
-      </c>
-      <c r="Y6" s="28" t="s">
-        <v>53</v>
       </c>
       <c r="Z6" s="16"/>
       <c r="AA6" s="17"/>
@@ -2465,12 +2626,12 @@
       <c r="AQ6" s="12"/>
       <c r="AR6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>37</v>
+    <row r="7" spans="1:44" ht="13.5" customHeight="1">
+      <c r="A7" s="91" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -2481,9 +2642,7 @@
       <c r="I7" s="19"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="13"/>
       <c r="O7" s="14"/>
@@ -2492,9 +2651,7 @@
       <c r="R7" s="17"/>
       <c r="S7" s="18"/>
       <c r="T7" s="19"/>
-      <c r="U7" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="U7" s="12"/>
       <c r="V7" s="12"/>
       <c r="W7" s="13"/>
       <c r="X7" s="21"/>
@@ -2519,9 +2676,9 @@
       <c r="AQ7" s="12"/>
       <c r="AR7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>37</v>
+    <row r="8" spans="1:44" ht="13.5" customHeight="1">
+      <c r="A8" s="91" t="s">
+        <v>39</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>1</v>
@@ -2535,9 +2692,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="13"/>
       <c r="O8" s="14"/>
@@ -2546,9 +2701,7 @@
       <c r="R8" s="17"/>
       <c r="S8" s="18"/>
       <c r="T8" s="19"/>
-      <c r="U8" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="U8" s="12"/>
       <c r="V8" s="12"/>
       <c r="W8" s="13"/>
       <c r="X8" s="21"/>
@@ -2573,12 +2726,12 @@
       <c r="AQ8" s="12"/>
       <c r="AR8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>37</v>
+    <row r="9" spans="1:44" ht="13.5" customHeight="1">
+      <c r="A9" s="91" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
@@ -2589,9 +2742,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="13"/>
       <c r="O9" s="14"/>
@@ -2600,9 +2751,7 @@
       <c r="R9" s="17"/>
       <c r="S9" s="18"/>
       <c r="T9" s="19"/>
-      <c r="U9" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="13"/>
       <c r="X9" s="21"/>
@@ -2627,12 +2776,12 @@
       <c r="AQ9" s="12"/>
       <c r="AR9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>37</v>
+    <row r="10" spans="1:44" ht="13.5" customHeight="1">
+      <c r="A10" s="91" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
@@ -2643,9 +2792,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="13"/>
       <c r="O10" s="14"/>
@@ -2654,9 +2801,7 @@
       <c r="R10" s="17"/>
       <c r="S10" s="18"/>
       <c r="T10" s="19"/>
-      <c r="U10" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="13"/>
       <c r="X10" s="21"/>
@@ -2681,12 +2826,12 @@
       <c r="AQ10" s="12"/>
       <c r="AR10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:44" ht="13.5" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
@@ -2731,12 +2876,12 @@
       <c r="AQ11" s="12"/>
       <c r="AR11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:44" ht="13.5" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
@@ -2781,12 +2926,12 @@
       <c r="AQ12" s="12"/>
       <c r="AR12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>37</v>
+    <row r="13" spans="1:44" ht="13.5" customHeight="1">
+      <c r="A13" s="91" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
@@ -2797,9 +2942,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
@@ -2808,9 +2951,7 @@
       <c r="R13" s="17"/>
       <c r="S13" s="18"/>
       <c r="T13" s="19"/>
-      <c r="U13" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="13"/>
       <c r="X13" s="21"/>
@@ -2835,9 +2976,9 @@
       <c r="AQ13" s="12"/>
       <c r="AR13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>37</v>
+    <row r="14" spans="1:44" ht="13.5" customHeight="1">
+      <c r="A14" s="91" t="s">
+        <v>39</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>1</v>
@@ -2851,9 +2992,7 @@
       <c r="I14" s="19"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
@@ -2862,9 +3001,7 @@
       <c r="R14" s="17"/>
       <c r="S14" s="18"/>
       <c r="T14" s="19"/>
-      <c r="U14" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="13"/>
       <c r="X14" s="21"/>
@@ -2889,9 +3026,9 @@
       <c r="AQ14" s="12"/>
       <c r="AR14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:44" ht="13.5" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
@@ -2937,9 +3074,9 @@
       <c r="AQ15" s="12"/>
       <c r="AR15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:44" ht="13.5" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
@@ -2985,9 +3122,9 @@
       <c r="AQ16" s="12"/>
       <c r="AR16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:44" ht="13.5" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
@@ -3033,9 +3170,9 @@
       <c r="AQ17" s="12"/>
       <c r="AR17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:44" ht="14.25" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
@@ -3081,21 +3218,21 @@
       <c r="AQ18" s="12"/>
       <c r="AR18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:44" ht="14.25" customHeight="1">
       <c r="A19" s="29" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="D19" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="E19" s="32" t="s">
         <v>62</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>63</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
@@ -3113,7 +3250,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="19"/>
       <c r="U19" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V19" s="35"/>
       <c r="W19" s="36"/>
@@ -3139,21 +3276,21 @@
       <c r="AQ19" s="35"/>
       <c r="AR19" s="35"/>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:44" ht="13.5" customHeight="1">
       <c r="A20" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="D20" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="E20" s="39" t="s">
         <v>67</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>68</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
@@ -3171,7 +3308,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="19"/>
       <c r="U20" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V20" s="35"/>
       <c r="W20" s="36"/>
@@ -3197,21 +3334,21 @@
       <c r="AQ20" s="35"/>
       <c r="AR20" s="35"/>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:44" ht="13.5" customHeight="1">
       <c r="A21" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="E21" s="39" t="s">
         <v>71</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>72</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="17"/>
@@ -3229,7 +3366,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="19"/>
       <c r="U21" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V21" s="35"/>
       <c r="W21" s="36"/>
@@ -3255,21 +3392,21 @@
       <c r="AQ21" s="35"/>
       <c r="AR21" s="35"/>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:44" ht="13.5" customHeight="1">
       <c r="A22" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="D22" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="E22" s="39" t="s">
         <v>76</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>77</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
@@ -3287,7 +3424,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="19"/>
       <c r="U22" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V22" s="35"/>
       <c r="W22" s="36"/>
@@ -3313,21 +3450,21 @@
       <c r="AQ22" s="35"/>
       <c r="AR22" s="35"/>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:44" ht="13.5" customHeight="1">
       <c r="A23" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="D23" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="E23" s="39" t="s">
         <v>81</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>82</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
@@ -3345,7 +3482,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="19"/>
       <c r="U23" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V23" s="35"/>
       <c r="W23" s="36"/>
@@ -3371,21 +3508,21 @@
       <c r="AQ23" s="35"/>
       <c r="AR23" s="35"/>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:44" ht="13.5" customHeight="1">
       <c r="A24" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="D24" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="E24" s="39" t="s">
         <v>86</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>87</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
@@ -3403,7 +3540,7 @@
       <c r="S24" s="18"/>
       <c r="T24" s="19"/>
       <c r="U24" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V24" s="35"/>
       <c r="W24" s="36"/>
@@ -3429,21 +3566,21 @@
       <c r="AQ24" s="35"/>
       <c r="AR24" s="35"/>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:44" ht="14.25" customHeight="1">
       <c r="A25" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="D25" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="E25" s="32" t="s">
         <v>91</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>92</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
@@ -3460,8 +3597,8 @@
       <c r="R25" s="17"/>
       <c r="S25" s="18"/>
       <c r="T25" s="19"/>
-      <c r="U25" s="41" t="s">
-        <v>93</v>
+      <c r="U25" s="96" t="s">
+        <v>441</v>
       </c>
       <c r="V25" s="41"/>
       <c r="W25" s="44"/>
@@ -3487,21 +3624,21 @@
       <c r="AQ25" s="41"/>
       <c r="AR25" s="41"/>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:44" ht="14.25" customHeight="1">
       <c r="A26" s="47" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="E26" s="32" t="s">
         <v>95</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>97</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
@@ -3519,7 +3656,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="19"/>
       <c r="U26" s="47" t="str">
-        <f aca="false">CONCATENATE("${g_",B26,"}")</f>
+        <f t="shared" ref="U26:U32" si="0">CONCATENATE("${g_",B26,"}")</f>
         <v>${g_lmp_method}</v>
       </c>
       <c r="V26" s="47"/>
@@ -3546,21 +3683,21 @@
       <c r="AQ26" s="47"/>
       <c r="AR26" s="47"/>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:44" ht="14.25" customHeight="1">
       <c r="A27" s="47" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="E27" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>101</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="17"/>
@@ -3578,7 +3715,7 @@
       <c r="S27" s="18"/>
       <c r="T27" s="19"/>
       <c r="U27" s="47" t="str">
-        <f aca="false">CONCATENATE("${g_",B27,"}")</f>
+        <f t="shared" si="0"/>
         <v>${g_lmp_date_8601}</v>
       </c>
       <c r="V27" s="47"/>
@@ -3605,21 +3742,21 @@
       <c r="AQ27" s="47"/>
       <c r="AR27" s="47"/>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:44" ht="14.25" customHeight="1">
       <c r="A28" s="47" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C28" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>101</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
@@ -3637,7 +3774,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="19"/>
       <c r="U28" s="47" t="str">
-        <f aca="false">CONCATENATE("${g_",B28,"}")</f>
+        <f t="shared" si="0"/>
         <v>${g_lmp_date}</v>
       </c>
       <c r="V28" s="47"/>
@@ -3664,21 +3801,21 @@
       <c r="AQ28" s="47"/>
       <c r="AR28" s="47"/>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:44" ht="14.25" customHeight="1">
       <c r="A29" s="47" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="E29" s="22" t="s">
         <v>104</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>106</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
@@ -3696,7 +3833,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="19"/>
       <c r="U29" s="47" t="str">
-        <f aca="false">CONCATENATE("${g_",B29,"}")</f>
+        <f t="shared" si="0"/>
         <v>${g_edd_8601}</v>
       </c>
       <c r="V29" s="47"/>
@@ -3723,21 +3860,21 @@
       <c r="AQ29" s="47"/>
       <c r="AR29" s="47"/>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:44" ht="14.25" customHeight="1">
       <c r="A30" s="47" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C30" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="22" t="s">
         <v>104</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>106</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
@@ -3755,7 +3892,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="19"/>
       <c r="U30" s="47" t="str">
-        <f aca="false">CONCATENATE("${g_",B30,"}")</f>
+        <f t="shared" si="0"/>
         <v>${g_edd}</v>
       </c>
       <c r="V30" s="47"/>
@@ -3782,21 +3919,21 @@
       <c r="AQ30" s="47"/>
       <c r="AR30" s="47"/>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:44" ht="14.25" customHeight="1">
       <c r="A31" s="47" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="E31" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>111</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="17"/>
@@ -3814,7 +3951,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="19"/>
       <c r="U31" s="47" t="str">
-        <f aca="false">CONCATENATE("${g_",B31,"}")</f>
+        <f t="shared" si="0"/>
         <v>${g_risk_factors}</v>
       </c>
       <c r="V31" s="47"/>
@@ -3841,21 +3978,21 @@
       <c r="AQ31" s="47"/>
       <c r="AR31" s="47"/>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:44" ht="14.25" customHeight="1">
       <c r="A32" s="47" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="E32" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>115</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
@@ -3873,7 +4010,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="19"/>
       <c r="U32" s="47" t="str">
-        <f aca="false">CONCATENATE("${g_",B32,"}")</f>
+        <f t="shared" si="0"/>
         <v>${g_danger_signs}</v>
       </c>
       <c r="V32" s="47"/>
@@ -3900,21 +4037,21 @@
       <c r="AQ32" s="47"/>
       <c r="AR32" s="47"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:44" ht="14.25" customHeight="1">
       <c r="A33" s="47" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="E33" s="22" t="s">
         <v>117</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>119</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="17"/>
@@ -3932,7 +4069,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="19"/>
       <c r="U33" s="47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V33" s="47"/>
       <c r="W33" s="48"/>
@@ -3958,12 +4095,12 @@
       <c r="AQ33" s="47"/>
       <c r="AR33" s="47"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:44" ht="14.25" customHeight="1">
       <c r="A34" s="29" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C34" s="52"/>
       <c r="D34" s="49"/>
@@ -3984,7 +4121,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="19"/>
       <c r="U34" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V34" s="53"/>
       <c r="W34" s="52"/>
@@ -4010,12 +4147,12 @@
       <c r="AQ34" s="29"/>
       <c r="AR34" s="29"/>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:44" ht="13.5" customHeight="1">
       <c r="A35" s="29" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C35" s="52"/>
       <c r="D35" s="49"/>
@@ -4036,7 +4173,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="19"/>
       <c r="U35" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V35" s="53"/>
       <c r="W35" s="52"/>
@@ -4062,21 +4199,21 @@
       <c r="AQ35" s="29"/>
       <c r="AR35" s="29"/>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:44" ht="14.25" customHeight="1">
       <c r="A36" s="55" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>127</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
@@ -4120,32 +4257,32 @@
       <c r="AQ36" s="11"/>
       <c r="AR36" s="11"/>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:44" ht="13.5" customHeight="1">
       <c r="A37" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="D37" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="E37" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="D37" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="17"/>
       <c r="H37" s="18"/>
       <c r="I37" s="19"/>
       <c r="J37" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37" s="11"/>
       <c r="L37" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M37" s="11"/>
       <c r="N37" s="56"/>
@@ -4165,7 +4302,7 @@
       <c r="AB37" s="18"/>
       <c r="AC37" s="19"/>
       <c r="AD37" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AE37" s="11"/>
       <c r="AF37" s="11"/>
@@ -4182,44 +4319,44 @@
       <c r="AQ37" s="11"/>
       <c r="AR37" s="11"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:44" ht="14.25" customHeight="1">
       <c r="A38" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="D38" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="E38" s="22" t="s">
         <v>137</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>139</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
       <c r="H38" s="18"/>
       <c r="I38" s="19"/>
       <c r="J38" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L38" s="11"/>
       <c r="M38" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="N38" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="O38" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="N38" s="56" t="s">
+      <c r="P38" s="20" t="s">
         <v>142</v>
-      </c>
-      <c r="O38" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="P38" s="20" t="s">
-        <v>144</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="17"/>
@@ -4250,31 +4387,31 @@
       <c r="AQ38" s="11"/>
       <c r="AR38" s="11"/>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:44" ht="14.25" customHeight="1">
       <c r="A39" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="D39" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="E39" s="22" t="s">
         <v>147</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>149</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="17"/>
       <c r="H39" s="18"/>
       <c r="I39" s="19"/>
       <c r="J39" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
@@ -4310,12 +4447,12 @@
       <c r="AQ39" s="11"/>
       <c r="AR39" s="11"/>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:44" ht="14.25" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C40" s="56"/>
       <c r="D40" s="57"/>
@@ -4336,7 +4473,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="19"/>
       <c r="U40" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="V40" s="11"/>
       <c r="W40" s="56"/>
@@ -4362,12 +4499,12 @@
       <c r="AQ40" s="11"/>
       <c r="AR40" s="11"/>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:44" ht="14.25" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C41" s="56"/>
       <c r="D41" s="57"/>
@@ -4388,7 +4525,7 @@
       <c r="S41" s="18"/>
       <c r="T41" s="19"/>
       <c r="U41" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V41" s="11"/>
       <c r="W41" s="56"/>
@@ -4414,21 +4551,21 @@
       <c r="AQ41" s="11"/>
       <c r="AR41" s="11"/>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:44" ht="14.25" customHeight="1">
       <c r="A42" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C42" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="D42" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>101</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
@@ -4446,7 +4583,7 @@
       <c r="S42" s="18"/>
       <c r="T42" s="19"/>
       <c r="U42" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V42" s="11"/>
       <c r="W42" s="56"/>
@@ -4472,12 +4609,12 @@
       <c r="AQ42" s="11"/>
       <c r="AR42" s="11"/>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:44" ht="14.25" customHeight="1">
       <c r="A43" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C43" s="56"/>
       <c r="D43" s="57"/>
@@ -4498,7 +4635,7 @@
       <c r="S43" s="18"/>
       <c r="T43" s="19"/>
       <c r="U43" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="V43" s="11"/>
       <c r="W43" s="56"/>
@@ -4524,12 +4661,12 @@
       <c r="AQ43" s="11"/>
       <c r="AR43" s="11"/>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:44" ht="14.25" customHeight="1">
       <c r="A44" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C44" s="56"/>
       <c r="D44" s="57"/>
@@ -4550,7 +4687,7 @@
       <c r="S44" s="18"/>
       <c r="T44" s="19"/>
       <c r="U44" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="V44" s="11"/>
       <c r="W44" s="56"/>
@@ -4576,21 +4713,21 @@
       <c r="AQ44" s="11"/>
       <c r="AR44" s="11"/>
     </row>
-    <row r="45" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:44" ht="27.75" customHeight="1">
       <c r="A45" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="D45" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="E45" s="22" t="s">
         <v>163</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="17"/>
@@ -4598,7 +4735,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
@@ -4634,9 +4771,9 @@
       <c r="AQ45" s="11"/>
       <c r="AR45" s="11"/>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:44" ht="14.25" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="56"/>
@@ -4682,21 +4819,21 @@
       <c r="AQ46" s="11"/>
       <c r="AR46" s="11"/>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:44" ht="14.25" customHeight="1">
       <c r="A47" s="55" t="s">
         <v>30</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C47" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="D47" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>111</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="17"/>
@@ -4740,21 +4877,21 @@
       <c r="AQ47" s="11"/>
       <c r="AR47" s="11"/>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:44" ht="14.25" customHeight="1">
       <c r="A48" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="D48" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="E48" s="22" t="s">
         <v>170</v>
-      </c>
-      <c r="D48" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>172</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="17"/>
@@ -4764,16 +4901,16 @@
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="N48" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="O48" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="N48" s="56" t="s">
+      <c r="P48" s="20" t="s">
         <v>174</v>
-      </c>
-      <c r="O48" s="57" t="s">
-        <v>175</v>
-      </c>
-      <c r="P48" s="20" t="s">
-        <v>176</v>
       </c>
       <c r="Q48" s="16"/>
       <c r="R48" s="17"/>
@@ -4782,13 +4919,13 @@
       <c r="U48" s="11"/>
       <c r="V48" s="11"/>
       <c r="W48" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="X48" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y48" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="X48" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y48" s="22" t="s">
-        <v>179</v>
       </c>
       <c r="Z48" s="16"/>
       <c r="AA48" s="17"/>
@@ -4810,9 +4947,9 @@
       <c r="AQ48" s="11"/>
       <c r="AR48" s="11"/>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:44" ht="14.25" customHeight="1">
       <c r="A49" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="56"/>
@@ -4858,21 +4995,21 @@
       <c r="AQ49" s="11"/>
       <c r="AR49" s="11"/>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:44" ht="14.25" customHeight="1">
       <c r="A50" s="55" t="s">
         <v>30</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C50" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="61" t="s">
         <v>113</v>
-      </c>
-      <c r="D50" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" s="61" t="s">
-        <v>115</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
@@ -4916,21 +5053,21 @@
       <c r="AQ50" s="11"/>
       <c r="AR50" s="11"/>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:44" ht="14.25" customHeight="1">
       <c r="A51" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="D51" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="C51" s="56" t="s">
+      <c r="E51" s="61" t="s">
         <v>183</v>
-      </c>
-      <c r="D51" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="E51" s="61" t="s">
-        <v>185</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="17"/>
@@ -4940,16 +5077,16 @@
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="N51" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="O51" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="N51" s="56" t="s">
+      <c r="P51" s="62" t="s">
         <v>187</v>
-      </c>
-      <c r="O51" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="P51" s="62" t="s">
-        <v>189</v>
       </c>
       <c r="Q51" s="16"/>
       <c r="R51" s="17"/>
@@ -4958,13 +5095,13 @@
       <c r="U51" s="11"/>
       <c r="V51" s="11"/>
       <c r="W51" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="X51" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y51" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="X51" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y51" s="22" t="s">
-        <v>179</v>
       </c>
       <c r="Z51" s="16"/>
       <c r="AA51" s="17"/>
@@ -4986,21 +5123,21 @@
       <c r="AQ51" s="11"/>
       <c r="AR51" s="11"/>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:44" ht="14.25" customHeight="1">
       <c r="A52" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B52" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="E52" s="22" t="s">
         <v>191</v>
-      </c>
-      <c r="D52" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>193</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="17"/>
@@ -5042,9 +5179,9 @@
       <c r="AQ52" s="11"/>
       <c r="AR52" s="11"/>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:44" ht="14.25" customHeight="1">
       <c r="A53" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="56"/>
@@ -5090,21 +5227,21 @@
       <c r="AQ53" s="11"/>
       <c r="AR53" s="11"/>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:44" ht="14.25" customHeight="1">
       <c r="A54" s="55" t="s">
         <v>30</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="D54" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="E54" s="22" t="s">
         <v>195</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="17"/>
@@ -5148,15 +5285,15 @@
       <c r="AQ54" s="11"/>
       <c r="AR54" s="11"/>
     </row>
-    <row r="55" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:44" ht="57" customHeight="1">
       <c r="A55" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="58" t="s">
         <v>198</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C55" s="58" t="s">
-        <v>200</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="22"/>
@@ -5178,7 +5315,7 @@
       <c r="S55" s="18"/>
       <c r="T55" s="19"/>
       <c r="U55" s="63" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V55" s="11"/>
       <c r="W55" s="56"/>
@@ -5204,43 +5341,34 @@
       <c r="AQ55" s="11"/>
       <c r="AR55" s="11"/>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="11" t="s">
-        <v>202</v>
+    <row r="56" spans="1:44" ht="14" customHeight="1">
+      <c r="A56" s="55" t="s">
+        <v>37</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C56" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="D56" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>206</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C56" s="58"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="22"/>
       <c r="F56" s="16"/>
       <c r="G56" s="17"/>
       <c r="H56" s="18"/>
       <c r="I56" s="19"/>
-      <c r="J56" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K56" s="55" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
       <c r="N56" s="56"/>
       <c r="O56" s="57"/>
-      <c r="P56" s="62"/>
+      <c r="P56" s="20"/>
       <c r="Q56" s="16"/>
       <c r="R56" s="17"/>
       <c r="S56" s="18"/>
       <c r="T56" s="19"/>
-      <c r="U56" s="11"/>
+      <c r="U56" s="11" t="s">
+        <v>212</v>
+      </c>
       <c r="V56" s="11"/>
       <c r="W56" s="56"/>
       <c r="X56" s="43"/>
@@ -5265,64 +5393,46 @@
       <c r="AQ56" s="11"/>
       <c r="AR56" s="11"/>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:44" ht="14" customHeight="1">
       <c r="A57" s="55" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C57" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="D57" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" s="28" t="s">
-        <v>211</v>
+        <v>435</v>
+      </c>
+      <c r="C57" s="92" t="s">
+        <v>433</v>
+      </c>
+      <c r="D57" s="94" t="s">
+        <v>436</v>
+      </c>
+      <c r="E57" s="95" t="s">
+        <v>437</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="17"/>
       <c r="H57" s="18"/>
-      <c r="I57" s="59"/>
+      <c r="I57" s="19"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="M57" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="N57" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="O57" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="P57" s="64" t="s">
-        <v>216</v>
-      </c>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="20"/>
       <c r="Q57" s="16"/>
       <c r="R57" s="17"/>
       <c r="S57" s="18"/>
-      <c r="T57" s="59"/>
-      <c r="U57" s="11" t="s">
-        <v>217</v>
-      </c>
+      <c r="T57" s="19"/>
+      <c r="U57" s="63"/>
       <c r="V57" s="11"/>
-      <c r="W57" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="X57" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y57" s="28" t="s">
-        <v>220</v>
-      </c>
+      <c r="W57" s="56"/>
+      <c r="X57" s="43"/>
+      <c r="Y57" s="22"/>
       <c r="Z57" s="16"/>
       <c r="AA57" s="17"/>
       <c r="AB57" s="18"/>
-      <c r="AC57" s="59"/>
+      <c r="AC57" s="19"/>
       <c r="AD57" s="11"/>
       <c r="AE57" s="11"/>
       <c r="AF57" s="11"/>
@@ -5339,25 +5449,37 @@
       <c r="AQ57" s="11"/>
       <c r="AR57" s="11"/>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:44" ht="14.25" customHeight="1">
       <c r="A58" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="22"/>
+        <v>200</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="93" t="s">
+        <v>432</v>
+      </c>
+      <c r="D58" s="94" t="s">
+        <v>202</v>
+      </c>
+      <c r="E58" s="95" t="s">
+        <v>438</v>
+      </c>
       <c r="F58" s="16"/>
       <c r="G58" s="17"/>
       <c r="H58" s="18"/>
       <c r="I58" s="19"/>
-      <c r="J58" s="11"/>
+      <c r="J58" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="K58" s="55"/>
-      <c r="L58" s="11"/>
+      <c r="L58" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="M58" s="11"/>
       <c r="N58" s="56"/>
       <c r="O58" s="57"/>
-      <c r="P58" s="20"/>
+      <c r="P58" s="62"/>
       <c r="Q58" s="16"/>
       <c r="R58" s="17"/>
       <c r="S58" s="18"/>
@@ -5371,7 +5493,9 @@
       <c r="AA58" s="17"/>
       <c r="AB58" s="18"/>
       <c r="AC58" s="19"/>
-      <c r="AD58" s="11"/>
+      <c r="AD58" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="AE58" s="11"/>
       <c r="AF58" s="11"/>
       <c r="AG58" s="11"/>
@@ -5387,43 +5511,62 @@
       <c r="AQ58" s="11"/>
       <c r="AR58" s="11"/>
     </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:44" ht="14.25" customHeight="1">
       <c r="A59" s="55" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C59" s="58"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="22"/>
+        <v>204</v>
+      </c>
+      <c r="C59" s="92" t="s">
+        <v>431</v>
+      </c>
+      <c r="D59" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" s="95" t="s">
+        <v>206</v>
+      </c>
       <c r="F59" s="16"/>
       <c r="G59" s="17"/>
       <c r="H59" s="18"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="M59" s="65"/>
-      <c r="N59" s="66"/>
-      <c r="O59" s="60"/>
-      <c r="P59" s="20"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="N59" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="O59" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="P59" s="64" t="s">
+        <v>211</v>
+      </c>
       <c r="Q59" s="16"/>
       <c r="R59" s="17"/>
       <c r="S59" s="18"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="65"/>
-      <c r="V59" s="65"/>
-      <c r="W59" s="66"/>
-      <c r="X59" s="67"/>
-      <c r="Y59" s="22"/>
+      <c r="T59" s="59"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="X59" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y59" s="28" t="s">
+        <v>215</v>
+      </c>
       <c r="Z59" s="16"/>
       <c r="AA59" s="17"/>
       <c r="AB59" s="18"/>
-      <c r="AC59" s="19"/>
-      <c r="AD59" s="65"/>
+      <c r="AC59" s="59"/>
+      <c r="AD59" s="11"/>
       <c r="AE59" s="11"/>
       <c r="AF59" s="11"/>
       <c r="AG59" s="11"/>
@@ -5439,22 +5582,14 @@
       <c r="AQ59" s="11"/>
       <c r="AR59" s="11"/>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:44" ht="14.25" customHeight="1">
       <c r="A60" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C60" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="D60" s="69" t="s">
-        <v>225</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>226</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="22"/>
       <c r="F60" s="16"/>
       <c r="G60" s="17"/>
       <c r="H60" s="18"/>
@@ -5495,74 +5630,74 @@
       <c r="AQ60" s="11"/>
       <c r="AR60" s="11"/>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="B61" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="C61" s="71" t="s">
-        <v>228</v>
-      </c>
-      <c r="D61" s="72" t="s">
-        <v>229</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>230</v>
-      </c>
+    <row r="61" spans="1:44" ht="13.5" customHeight="1">
+      <c r="A61" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="58"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="22"/>
       <c r="F61" s="16"/>
       <c r="G61" s="17"/>
       <c r="H61" s="18"/>
       <c r="I61" s="19"/>
-      <c r="J61" s="70"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="M61" s="70"/>
-      <c r="N61" s="73"/>
-      <c r="O61" s="74"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="M61" s="65"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="60"/>
       <c r="P61" s="20"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="17"/>
       <c r="S61" s="18"/>
       <c r="T61" s="19"/>
-      <c r="U61" s="70"/>
-      <c r="V61" s="70"/>
-      <c r="W61" s="73"/>
-      <c r="X61" s="72"/>
+      <c r="U61" s="65"/>
+      <c r="V61" s="65"/>
+      <c r="W61" s="66"/>
+      <c r="X61" s="67"/>
       <c r="Y61" s="22"/>
       <c r="Z61" s="16"/>
       <c r="AA61" s="17"/>
       <c r="AB61" s="18"/>
       <c r="AC61" s="19"/>
-      <c r="AD61" s="70"/>
-      <c r="AE61" s="70"/>
-      <c r="AF61" s="70"/>
-      <c r="AG61" s="70"/>
-      <c r="AH61" s="70"/>
-      <c r="AI61" s="70"/>
-      <c r="AJ61" s="70"/>
-      <c r="AK61" s="70"/>
-      <c r="AL61" s="70"/>
-      <c r="AM61" s="70"/>
-      <c r="AN61" s="70"/>
-      <c r="AO61" s="70"/>
-      <c r="AP61" s="70"/>
-      <c r="AQ61" s="70"/>
-      <c r="AR61" s="70"/>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD61" s="65"/>
+      <c r="AE61" s="11"/>
+      <c r="AF61" s="11"/>
+      <c r="AG61" s="11"/>
+      <c r="AH61" s="11"/>
+      <c r="AI61" s="11"/>
+      <c r="AJ61" s="11"/>
+      <c r="AK61" s="11"/>
+      <c r="AL61" s="11"/>
+      <c r="AM61" s="11"/>
+      <c r="AN61" s="11"/>
+      <c r="AO61" s="11"/>
+      <c r="AP61" s="11"/>
+      <c r="AQ61" s="11"/>
+      <c r="AR61" s="11"/>
+    </row>
+    <row r="62" spans="1:44" ht="14.25" customHeight="1">
       <c r="A62" s="11" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C62" s="58"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="22"/>
+        <v>218</v>
+      </c>
+      <c r="C62" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>221</v>
+      </c>
       <c r="F62" s="16"/>
       <c r="G62" s="17"/>
       <c r="H62" s="18"/>
@@ -5578,9 +5713,7 @@
       <c r="R62" s="17"/>
       <c r="S62" s="18"/>
       <c r="T62" s="19"/>
-      <c r="U62" s="35" t="s">
-        <v>233</v>
-      </c>
+      <c r="U62" s="11"/>
       <c r="V62" s="11"/>
       <c r="W62" s="56"/>
       <c r="X62" s="43"/>
@@ -5605,91 +5738,81 @@
       <c r="AQ62" s="11"/>
       <c r="AR62" s="11"/>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C63" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="D63" s="43" t="s">
-        <v>236</v>
+    <row r="63" spans="1:44" ht="14.25" customHeight="1">
+      <c r="A63" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="D63" s="72" t="s">
+        <v>224</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="17"/>
       <c r="H63" s="18"/>
       <c r="I63" s="19"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="M63" s="11"/>
-      <c r="N63" s="56"/>
-      <c r="O63" s="57"/>
+      <c r="J63" s="70"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="M63" s="70"/>
+      <c r="N63" s="73"/>
+      <c r="O63" s="74"/>
       <c r="P63" s="20"/>
       <c r="Q63" s="16"/>
       <c r="R63" s="17"/>
       <c r="S63" s="18"/>
       <c r="T63" s="19"/>
-      <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="56"/>
-      <c r="X63" s="43"/>
+      <c r="U63" s="70"/>
+      <c r="V63" s="70"/>
+      <c r="W63" s="73"/>
+      <c r="X63" s="72"/>
       <c r="Y63" s="22"/>
       <c r="Z63" s="16"/>
       <c r="AA63" s="17"/>
       <c r="AB63" s="18"/>
       <c r="AC63" s="19"/>
-      <c r="AD63" s="11"/>
-      <c r="AE63" s="11"/>
-      <c r="AF63" s="11"/>
-      <c r="AG63" s="11"/>
-      <c r="AH63" s="11"/>
-      <c r="AI63" s="11"/>
-      <c r="AJ63" s="11"/>
-      <c r="AK63" s="11"/>
-      <c r="AL63" s="11"/>
-      <c r="AM63" s="11"/>
-      <c r="AN63" s="11"/>
-      <c r="AO63" s="11"/>
-      <c r="AP63" s="11"/>
-      <c r="AQ63" s="11"/>
-      <c r="AR63" s="11"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD63" s="70"/>
+      <c r="AE63" s="70"/>
+      <c r="AF63" s="70"/>
+      <c r="AG63" s="70"/>
+      <c r="AH63" s="70"/>
+      <c r="AI63" s="70"/>
+      <c r="AJ63" s="70"/>
+      <c r="AK63" s="70"/>
+      <c r="AL63" s="70"/>
+      <c r="AM63" s="70"/>
+      <c r="AN63" s="70"/>
+      <c r="AO63" s="70"/>
+      <c r="AP63" s="70"/>
+      <c r="AQ63" s="70"/>
+      <c r="AR63" s="70"/>
+    </row>
+    <row r="64" spans="1:44" ht="14.25" customHeight="1">
       <c r="A64" s="11" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C64" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>111</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C64" s="58"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="22"/>
       <c r="F64" s="16"/>
       <c r="G64" s="17"/>
       <c r="H64" s="18"/>
-      <c r="I64" s="59"/>
+      <c r="I64" s="19"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="L64" s="11" t="s">
-        <v>241</v>
-      </c>
+      <c r="K64" s="55"/>
+      <c r="L64" s="11"/>
       <c r="M64" s="11"/>
       <c r="N64" s="56"/>
       <c r="O64" s="57"/>
@@ -5698,7 +5821,9 @@
       <c r="R64" s="17"/>
       <c r="S64" s="18"/>
       <c r="T64" s="19"/>
-      <c r="U64" s="11"/>
+      <c r="U64" s="35" t="s">
+        <v>228</v>
+      </c>
       <c r="V64" s="11"/>
       <c r="W64" s="56"/>
       <c r="X64" s="43"/>
@@ -5723,32 +5848,30 @@
       <c r="AQ64" s="11"/>
       <c r="AR64" s="11"/>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:44" ht="14.25" customHeight="1">
       <c r="A65" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C65" s="58" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="17"/>
       <c r="H65" s="18"/>
       <c r="I65" s="19"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="11" t="s">
-        <v>246</v>
-      </c>
+      <c r="K65" s="11"/>
       <c r="L65" s="11" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="M65" s="11"/>
       <c r="N65" s="56"/>
@@ -5783,32 +5906,32 @@
       <c r="AQ65" s="11"/>
       <c r="AR65" s="11"/>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:44" ht="14.25" customHeight="1">
       <c r="A66" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C66" s="58" t="s">
-        <v>249</v>
+        <v>107</v>
       </c>
       <c r="D66" s="43" t="s">
-        <v>250</v>
+        <v>108</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>251</v>
+        <v>109</v>
       </c>
       <c r="F66" s="16"/>
       <c r="G66" s="17"/>
       <c r="H66" s="18"/>
-      <c r="I66" s="19"/>
+      <c r="I66" s="59"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="L66" s="11" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="M66" s="11"/>
       <c r="N66" s="56"/>
@@ -5843,21 +5966,21 @@
       <c r="AQ66" s="11"/>
       <c r="AR66" s="11"/>
     </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:44" ht="14.25" customHeight="1">
       <c r="A67" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C67" s="58" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D67" s="43" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="F67" s="16"/>
       <c r="G67" s="17"/>
@@ -5865,10 +5988,10 @@
       <c r="I67" s="19"/>
       <c r="J67" s="11"/>
       <c r="K67" s="11" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M67" s="11"/>
       <c r="N67" s="56"/>
@@ -5903,21 +6026,21 @@
       <c r="AQ67" s="11"/>
       <c r="AR67" s="11"/>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:44" ht="14.25" customHeight="1">
       <c r="A68" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C68" s="58" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D68" s="43" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="F68" s="16"/>
       <c r="G68" s="17"/>
@@ -5925,10 +6048,10 @@
       <c r="I68" s="19"/>
       <c r="J68" s="11"/>
       <c r="K68" s="11" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M68" s="11"/>
       <c r="N68" s="56"/>
@@ -5963,21 +6086,21 @@
       <c r="AQ68" s="11"/>
       <c r="AR68" s="11"/>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:44" ht="14.25" customHeight="1">
       <c r="A69" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C69" s="58" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="F69" s="16"/>
       <c r="G69" s="17"/>
@@ -5985,10 +6108,10 @@
       <c r="I69" s="19"/>
       <c r="J69" s="11"/>
       <c r="K69" s="11" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M69" s="11"/>
       <c r="N69" s="56"/>
@@ -6023,21 +6146,21 @@
       <c r="AQ69" s="11"/>
       <c r="AR69" s="11"/>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:44" ht="14.25" customHeight="1">
       <c r="A70" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C70" s="58" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D70" s="43" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="17"/>
@@ -6045,10 +6168,10 @@
       <c r="I70" s="19"/>
       <c r="J70" s="11"/>
       <c r="K70" s="11" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="L70" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M70" s="11"/>
       <c r="N70" s="56"/>
@@ -6083,21 +6206,21 @@
       <c r="AQ70" s="11"/>
       <c r="AR70" s="11"/>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:44" ht="14.25" customHeight="1">
       <c r="A71" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C71" s="58" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D71" s="43" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="17"/>
@@ -6105,10 +6228,10 @@
       <c r="I71" s="19"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="L71" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M71" s="11"/>
       <c r="N71" s="56"/>
@@ -6143,21 +6266,21 @@
       <c r="AQ71" s="11"/>
       <c r="AR71" s="11"/>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:44" ht="14.25" customHeight="1">
       <c r="A72" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C72" s="58" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D72" s="43" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="17"/>
@@ -6165,10 +6288,10 @@
       <c r="I72" s="19"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="L72" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="56"/>
@@ -6203,81 +6326,81 @@
       <c r="AQ72" s="11"/>
       <c r="AR72" s="11"/>
     </row>
-    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="75" t="s">
-        <v>161</v>
-      </c>
-      <c r="B73" s="75" t="s">
-        <v>283</v>
-      </c>
-      <c r="C73" s="71" t="s">
-        <v>284</v>
-      </c>
-      <c r="D73" s="76" t="s">
-        <v>285</v>
+    <row r="73" spans="1:44" ht="14.25" customHeight="1">
+      <c r="A73" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C73" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" s="43" t="s">
+        <v>270</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="17"/>
       <c r="H73" s="18"/>
       <c r="I73" s="19"/>
-      <c r="J73" s="75"/>
-      <c r="K73" s="76" t="s">
-        <v>287</v>
-      </c>
-      <c r="L73" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="M73" s="75"/>
-      <c r="N73" s="73"/>
-      <c r="O73" s="74"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="M73" s="11"/>
+      <c r="N73" s="56"/>
+      <c r="O73" s="57"/>
       <c r="P73" s="20"/>
       <c r="Q73" s="16"/>
       <c r="R73" s="17"/>
       <c r="S73" s="18"/>
       <c r="T73" s="19"/>
-      <c r="U73" s="75"/>
-      <c r="V73" s="75"/>
-      <c r="W73" s="73"/>
-      <c r="X73" s="72"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="56"/>
+      <c r="X73" s="43"/>
       <c r="Y73" s="22"/>
       <c r="Z73" s="16"/>
       <c r="AA73" s="17"/>
       <c r="AB73" s="18"/>
       <c r="AC73" s="19"/>
-      <c r="AD73" s="75"/>
-      <c r="AE73" s="75"/>
-      <c r="AF73" s="75"/>
-      <c r="AG73" s="75"/>
-      <c r="AH73" s="75"/>
-      <c r="AI73" s="75"/>
-      <c r="AJ73" s="75"/>
-      <c r="AK73" s="75"/>
-      <c r="AL73" s="75"/>
-      <c r="AM73" s="75"/>
-      <c r="AN73" s="75"/>
-      <c r="AO73" s="75"/>
-      <c r="AP73" s="75"/>
-      <c r="AQ73" s="75"/>
-      <c r="AR73" s="75"/>
-    </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD73" s="11"/>
+      <c r="AE73" s="11"/>
+      <c r="AF73" s="11"/>
+      <c r="AG73" s="11"/>
+      <c r="AH73" s="11"/>
+      <c r="AI73" s="11"/>
+      <c r="AJ73" s="11"/>
+      <c r="AK73" s="11"/>
+      <c r="AL73" s="11"/>
+      <c r="AM73" s="11"/>
+      <c r="AN73" s="11"/>
+      <c r="AO73" s="11"/>
+      <c r="AP73" s="11"/>
+      <c r="AQ73" s="11"/>
+      <c r="AR73" s="11"/>
+    </row>
+    <row r="74" spans="1:44" ht="14.25" customHeight="1">
       <c r="A74" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C74" s="58" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="17"/>
@@ -6285,9 +6408,11 @@
       <c r="I74" s="19"/>
       <c r="J74" s="11"/>
       <c r="K74" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="L74" s="11"/>
+        <v>277</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>242</v>
+      </c>
       <c r="M74" s="11"/>
       <c r="N74" s="56"/>
       <c r="O74" s="57"/>
@@ -6321,81 +6446,81 @@
       <c r="AQ74" s="11"/>
       <c r="AR74" s="11"/>
     </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C75" s="58" t="s">
-        <v>294</v>
-      </c>
-      <c r="D75" s="43" t="s">
-        <v>295</v>
+    <row r="75" spans="1:44" ht="13.5" customHeight="1">
+      <c r="A75" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="C75" s="71" t="s">
+        <v>279</v>
+      </c>
+      <c r="D75" s="76" t="s">
+        <v>280</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="17"/>
       <c r="H75" s="18"/>
       <c r="I75" s="19"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="L75" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="M75" s="11"/>
-      <c r="N75" s="56"/>
-      <c r="O75" s="57"/>
+      <c r="J75" s="75"/>
+      <c r="K75" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="L75" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="M75" s="75"/>
+      <c r="N75" s="73"/>
+      <c r="O75" s="74"/>
       <c r="P75" s="20"/>
       <c r="Q75" s="16"/>
       <c r="R75" s="17"/>
       <c r="S75" s="18"/>
       <c r="T75" s="19"/>
-      <c r="U75" s="11"/>
-      <c r="V75" s="11"/>
-      <c r="W75" s="56"/>
-      <c r="X75" s="43"/>
+      <c r="U75" s="75"/>
+      <c r="V75" s="75"/>
+      <c r="W75" s="73"/>
+      <c r="X75" s="72"/>
       <c r="Y75" s="22"/>
       <c r="Z75" s="16"/>
       <c r="AA75" s="17"/>
       <c r="AB75" s="18"/>
       <c r="AC75" s="19"/>
-      <c r="AD75" s="11"/>
-      <c r="AE75" s="11"/>
-      <c r="AF75" s="11"/>
-      <c r="AG75" s="11"/>
-      <c r="AH75" s="11"/>
-      <c r="AI75" s="11"/>
-      <c r="AJ75" s="11"/>
-      <c r="AK75" s="11"/>
-      <c r="AL75" s="11"/>
-      <c r="AM75" s="11"/>
-      <c r="AN75" s="11"/>
-      <c r="AO75" s="11"/>
-      <c r="AP75" s="11"/>
-      <c r="AQ75" s="11"/>
-      <c r="AR75" s="11"/>
-    </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD75" s="75"/>
+      <c r="AE75" s="75"/>
+      <c r="AF75" s="75"/>
+      <c r="AG75" s="75"/>
+      <c r="AH75" s="75"/>
+      <c r="AI75" s="75"/>
+      <c r="AJ75" s="75"/>
+      <c r="AK75" s="75"/>
+      <c r="AL75" s="75"/>
+      <c r="AM75" s="75"/>
+      <c r="AN75" s="75"/>
+      <c r="AO75" s="75"/>
+      <c r="AP75" s="75"/>
+      <c r="AQ75" s="75"/>
+      <c r="AR75" s="75"/>
+    </row>
+    <row r="76" spans="1:44" ht="14.25" customHeight="1">
       <c r="A76" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C76" s="58" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D76" s="43" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="17"/>
@@ -6403,11 +6528,9 @@
       <c r="I76" s="19"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="L76" s="11" t="s">
-        <v>247</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="L76" s="11"/>
       <c r="M76" s="11"/>
       <c r="N76" s="56"/>
       <c r="O76" s="57"/>
@@ -6441,21 +6564,21 @@
       <c r="AQ76" s="11"/>
       <c r="AR76" s="11"/>
     </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:44" ht="14.25" customHeight="1">
       <c r="A77" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C77" s="58" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D77" s="43" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="F77" s="16"/>
       <c r="G77" s="17"/>
@@ -6463,10 +6586,10 @@
       <c r="I77" s="19"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="L77" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M77" s="11"/>
       <c r="N77" s="56"/>
@@ -6501,21 +6624,21 @@
       <c r="AQ77" s="11"/>
       <c r="AR77" s="11"/>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:44" ht="14.25" customHeight="1">
       <c r="A78" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C78" s="58" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="D78" s="43" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="17"/>
@@ -6523,10 +6646,10 @@
       <c r="I78" s="19"/>
       <c r="J78" s="11"/>
       <c r="K78" s="11" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="56"/>
@@ -6561,21 +6684,21 @@
       <c r="AQ78" s="11"/>
       <c r="AR78" s="11"/>
     </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:44" ht="14.25" customHeight="1">
       <c r="A79" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C79" s="58" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="D79" s="43" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="17"/>
@@ -6583,10 +6706,10 @@
       <c r="I79" s="19"/>
       <c r="J79" s="11"/>
       <c r="K79" s="11" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="56"/>
@@ -6621,21 +6744,21 @@
       <c r="AQ79" s="11"/>
       <c r="AR79" s="11"/>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:44" ht="14.25" customHeight="1">
       <c r="A80" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C80" s="58" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="17"/>
@@ -6643,10 +6766,10 @@
       <c r="I80" s="19"/>
       <c r="J80" s="11"/>
       <c r="K80" s="11" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M80" s="11"/>
       <c r="N80" s="56"/>
@@ -6681,21 +6804,21 @@
       <c r="AQ80" s="11"/>
       <c r="AR80" s="11"/>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:44" ht="14.25" customHeight="1">
       <c r="A81" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C81" s="58" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="D81" s="43" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="F81" s="16"/>
       <c r="G81" s="17"/>
@@ -6703,10 +6826,10 @@
       <c r="I81" s="19"/>
       <c r="J81" s="11"/>
       <c r="K81" s="11" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="56"/>
@@ -6741,21 +6864,21 @@
       <c r="AQ81" s="11"/>
       <c r="AR81" s="11"/>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:44" ht="14.25" customHeight="1">
       <c r="A82" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C82" s="58" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="D82" s="43" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="17"/>
@@ -6763,10 +6886,10 @@
       <c r="I82" s="19"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="56"/>
@@ -6801,21 +6924,21 @@
       <c r="AQ82" s="11"/>
       <c r="AR82" s="11"/>
     </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:44" ht="14.25" customHeight="1">
       <c r="A83" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C83" s="58" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="D83" s="43" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="17"/>
@@ -6823,10 +6946,10 @@
       <c r="I83" s="19"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M83" s="11"/>
       <c r="N83" s="56"/>
@@ -6861,79 +6984,81 @@
       <c r="AQ83" s="11"/>
       <c r="AR83" s="11"/>
     </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="B84" s="77" t="s">
-        <v>338</v>
-      </c>
-      <c r="C84" s="71" t="s">
-        <v>339</v>
+    <row r="84" spans="1:44" ht="14.25" customHeight="1">
+      <c r="A84" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C84" s="58" t="s">
+        <v>324</v>
       </c>
       <c r="D84" s="43" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="17"/>
       <c r="H84" s="18"/>
       <c r="I84" s="19"/>
-      <c r="J84" s="77"/>
-      <c r="K84" s="78"/>
-      <c r="L84" s="77" t="s">
-        <v>342</v>
-      </c>
-      <c r="M84" s="77"/>
-      <c r="N84" s="73"/>
-      <c r="O84" s="74"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="M84" s="11"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="57"/>
       <c r="P84" s="20"/>
       <c r="Q84" s="16"/>
       <c r="R84" s="17"/>
       <c r="S84" s="18"/>
       <c r="T84" s="19"/>
-      <c r="U84" s="77"/>
-      <c r="V84" s="77"/>
-      <c r="W84" s="73"/>
-      <c r="X84" s="72"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="11"/>
+      <c r="W84" s="56"/>
+      <c r="X84" s="43"/>
       <c r="Y84" s="22"/>
       <c r="Z84" s="16"/>
       <c r="AA84" s="17"/>
       <c r="AB84" s="18"/>
       <c r="AC84" s="19"/>
-      <c r="AD84" s="77"/>
-      <c r="AE84" s="77"/>
-      <c r="AF84" s="77"/>
-      <c r="AG84" s="77"/>
-      <c r="AH84" s="77"/>
-      <c r="AI84" s="77"/>
-      <c r="AJ84" s="77"/>
-      <c r="AK84" s="77"/>
-      <c r="AL84" s="77"/>
-      <c r="AM84" s="77"/>
-      <c r="AN84" s="77"/>
-      <c r="AO84" s="77"/>
-      <c r="AP84" s="77"/>
-      <c r="AQ84" s="77"/>
-      <c r="AR84" s="77"/>
-    </row>
-    <row r="85" customFormat="false" ht="195.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD84" s="11"/>
+      <c r="AE84" s="11"/>
+      <c r="AF84" s="11"/>
+      <c r="AG84" s="11"/>
+      <c r="AH84" s="11"/>
+      <c r="AI84" s="11"/>
+      <c r="AJ84" s="11"/>
+      <c r="AK84" s="11"/>
+      <c r="AL84" s="11"/>
+      <c r="AM84" s="11"/>
+      <c r="AN84" s="11"/>
+      <c r="AO84" s="11"/>
+      <c r="AP84" s="11"/>
+      <c r="AQ84" s="11"/>
+      <c r="AR84" s="11"/>
+    </row>
+    <row r="85" spans="1:44" ht="14.25" customHeight="1">
       <c r="A85" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C85" s="58" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="D85" s="43" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="F85" s="16"/>
       <c r="G85" s="17"/>
@@ -6941,9 +7066,11 @@
       <c r="I85" s="19"/>
       <c r="J85" s="11"/>
       <c r="K85" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="L85" s="11"/>
+        <v>332</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>242</v>
+      </c>
       <c r="M85" s="11"/>
       <c r="N85" s="56"/>
       <c r="O85" s="57"/>
@@ -6977,79 +7104,79 @@
       <c r="AQ85" s="11"/>
       <c r="AR85" s="11"/>
     </row>
-    <row r="86" customFormat="false" ht="237.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C86" s="58" t="s">
-        <v>349</v>
+    <row r="86" spans="1:44" ht="13.5" customHeight="1">
+      <c r="A86" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" s="77" t="s">
+        <v>333</v>
+      </c>
+      <c r="C86" s="71" t="s">
+        <v>334</v>
       </c>
       <c r="D86" s="43" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="17"/>
       <c r="H86" s="18"/>
       <c r="I86" s="19"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="57"/>
+      <c r="J86" s="77"/>
+      <c r="K86" s="78"/>
+      <c r="L86" s="77" t="s">
+        <v>337</v>
+      </c>
+      <c r="M86" s="77"/>
+      <c r="N86" s="73"/>
+      <c r="O86" s="74"/>
       <c r="P86" s="20"/>
       <c r="Q86" s="16"/>
       <c r="R86" s="17"/>
       <c r="S86" s="18"/>
       <c r="T86" s="19"/>
-      <c r="U86" s="11"/>
-      <c r="V86" s="11"/>
-      <c r="W86" s="56"/>
-      <c r="X86" s="43"/>
+      <c r="U86" s="77"/>
+      <c r="V86" s="77"/>
+      <c r="W86" s="73"/>
+      <c r="X86" s="72"/>
       <c r="Y86" s="22"/>
       <c r="Z86" s="16"/>
       <c r="AA86" s="17"/>
       <c r="AB86" s="18"/>
       <c r="AC86" s="19"/>
-      <c r="AD86" s="11"/>
-      <c r="AE86" s="11"/>
-      <c r="AF86" s="11"/>
-      <c r="AG86" s="11"/>
-      <c r="AH86" s="11"/>
-      <c r="AI86" s="11"/>
-      <c r="AJ86" s="11"/>
-      <c r="AK86" s="11"/>
-      <c r="AL86" s="11"/>
-      <c r="AM86" s="11"/>
-      <c r="AN86" s="11"/>
-      <c r="AO86" s="11"/>
-      <c r="AP86" s="11"/>
-      <c r="AQ86" s="11"/>
-      <c r="AR86" s="11"/>
-    </row>
-    <row r="87" customFormat="false" ht="252" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD86" s="77"/>
+      <c r="AE86" s="77"/>
+      <c r="AF86" s="77"/>
+      <c r="AG86" s="77"/>
+      <c r="AH86" s="77"/>
+      <c r="AI86" s="77"/>
+      <c r="AJ86" s="77"/>
+      <c r="AK86" s="77"/>
+      <c r="AL86" s="77"/>
+      <c r="AM86" s="77"/>
+      <c r="AN86" s="77"/>
+      <c r="AO86" s="77"/>
+      <c r="AP86" s="77"/>
+      <c r="AQ86" s="77"/>
+      <c r="AR86" s="77"/>
+    </row>
+    <row r="87" spans="1:44" ht="195.75" customHeight="1">
       <c r="A87" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="C87" s="58" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="D87" s="43" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="F87" s="16"/>
       <c r="G87" s="17"/>
@@ -7057,7 +7184,7 @@
       <c r="I87" s="19"/>
       <c r="J87" s="11"/>
       <c r="K87" s="11" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
@@ -7093,89 +7220,87 @@
       <c r="AQ87" s="11"/>
       <c r="AR87" s="11"/>
     </row>
-    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="B88" s="79" t="s">
-        <v>358</v>
-      </c>
-      <c r="C88" s="71" t="s">
-        <v>359</v>
-      </c>
-      <c r="D88" s="72" t="s">
-        <v>360</v>
-      </c>
-      <c r="E88" s="80" t="s">
-        <v>361</v>
+    <row r="88" spans="1:44" ht="237.75" customHeight="1">
+      <c r="A88" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C88" s="58" t="s">
+        <v>344</v>
+      </c>
+      <c r="D88" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>346</v>
       </c>
       <c r="F88" s="16"/>
       <c r="G88" s="17"/>
       <c r="H88" s="18"/>
       <c r="I88" s="19"/>
-      <c r="J88" s="79"/>
-      <c r="K88" s="81" t="s">
-        <v>362</v>
-      </c>
-      <c r="L88" s="79" t="s">
-        <v>363</v>
-      </c>
-      <c r="M88" s="79"/>
-      <c r="N88" s="73"/>
-      <c r="O88" s="74"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="56"/>
+      <c r="O88" s="57"/>
       <c r="P88" s="20"/>
       <c r="Q88" s="16"/>
       <c r="R88" s="17"/>
       <c r="S88" s="18"/>
       <c r="T88" s="19"/>
-      <c r="U88" s="79"/>
-      <c r="V88" s="79"/>
-      <c r="W88" s="73"/>
-      <c r="X88" s="72"/>
+      <c r="U88" s="11"/>
+      <c r="V88" s="11"/>
+      <c r="W88" s="56"/>
+      <c r="X88" s="43"/>
       <c r="Y88" s="22"/>
       <c r="Z88" s="16"/>
       <c r="AA88" s="17"/>
       <c r="AB88" s="18"/>
       <c r="AC88" s="19"/>
-      <c r="AD88" s="79"/>
-      <c r="AE88" s="79"/>
-      <c r="AF88" s="79"/>
-      <c r="AG88" s="79"/>
-      <c r="AH88" s="79"/>
-      <c r="AI88" s="79"/>
-      <c r="AJ88" s="79"/>
-      <c r="AK88" s="79"/>
-      <c r="AL88" s="79"/>
-      <c r="AM88" s="79"/>
-      <c r="AN88" s="79"/>
-      <c r="AO88" s="79"/>
-      <c r="AP88" s="79"/>
-      <c r="AQ88" s="79"/>
-      <c r="AR88" s="79"/>
-    </row>
-    <row r="89" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD88" s="11"/>
+      <c r="AE88" s="11"/>
+      <c r="AF88" s="11"/>
+      <c r="AG88" s="11"/>
+      <c r="AH88" s="11"/>
+      <c r="AI88" s="11"/>
+      <c r="AJ88" s="11"/>
+      <c r="AK88" s="11"/>
+      <c r="AL88" s="11"/>
+      <c r="AM88" s="11"/>
+      <c r="AN88" s="11"/>
+      <c r="AO88" s="11"/>
+      <c r="AP88" s="11"/>
+      <c r="AQ88" s="11"/>
+      <c r="AR88" s="11"/>
+    </row>
+    <row r="89" spans="1:44" ht="252" customHeight="1">
       <c r="A89" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C89" s="58" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D89" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="E89" s="28" t="s">
-        <v>367</v>
+        <v>350</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>351</v>
       </c>
       <c r="F89" s="16"/>
       <c r="G89" s="17"/>
       <c r="H89" s="18"/>
       <c r="I89" s="19"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="82" t="s">
-        <v>362</v>
+      <c r="K89" s="11" t="s">
+        <v>352</v>
       </c>
       <c r="L89" s="11"/>
       <c r="M89" s="11"/>
@@ -7211,80 +7336,90 @@
       <c r="AQ89" s="11"/>
       <c r="AR89" s="11"/>
     </row>
-    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C90" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="D90" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>93</v>
+    <row r="90" spans="1:44" ht="13.5" customHeight="1">
+      <c r="A90" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" s="79" t="s">
+        <v>353</v>
+      </c>
+      <c r="C90" s="71" t="s">
+        <v>354</v>
+      </c>
+      <c r="D90" s="72" t="s">
+        <v>355</v>
+      </c>
+      <c r="E90" s="80" t="s">
+        <v>356</v>
       </c>
       <c r="F90" s="16"/>
       <c r="G90" s="17"/>
       <c r="H90" s="18"/>
       <c r="I90" s="19"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="82" t="s">
-        <v>362</v>
-      </c>
-      <c r="L90" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="M90" s="11"/>
-      <c r="N90" s="56"/>
-      <c r="O90" s="57"/>
+      <c r="J90" s="79"/>
+      <c r="K90" s="81" t="s">
+        <v>440</v>
+      </c>
+      <c r="L90" s="79" t="s">
+        <v>357</v>
+      </c>
+      <c r="M90" s="79"/>
+      <c r="N90" s="73"/>
+      <c r="O90" s="74"/>
       <c r="P90" s="20"/>
       <c r="Q90" s="16"/>
       <c r="R90" s="17"/>
       <c r="S90" s="18"/>
       <c r="T90" s="19"/>
-      <c r="U90" s="11"/>
-      <c r="V90" s="11"/>
-      <c r="W90" s="56"/>
-      <c r="X90" s="43"/>
+      <c r="U90" s="79"/>
+      <c r="V90" s="79"/>
+      <c r="W90" s="73"/>
+      <c r="X90" s="72"/>
       <c r="Y90" s="22"/>
       <c r="Z90" s="16"/>
       <c r="AA90" s="17"/>
       <c r="AB90" s="18"/>
       <c r="AC90" s="19"/>
-      <c r="AD90" s="11"/>
-      <c r="AE90" s="11"/>
-      <c r="AF90" s="11"/>
-      <c r="AG90" s="11"/>
-      <c r="AH90" s="11"/>
-      <c r="AI90" s="11"/>
-      <c r="AJ90" s="11"/>
-      <c r="AK90" s="11"/>
-      <c r="AL90" s="11"/>
-      <c r="AM90" s="11"/>
-      <c r="AN90" s="11"/>
-      <c r="AO90" s="11"/>
-      <c r="AP90" s="11"/>
-      <c r="AQ90" s="11"/>
-      <c r="AR90" s="11"/>
-    </row>
-    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="58"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="22"/>
+      <c r="AD90" s="79"/>
+      <c r="AE90" s="79"/>
+      <c r="AF90" s="79"/>
+      <c r="AG90" s="79"/>
+      <c r="AH90" s="79"/>
+      <c r="AI90" s="79"/>
+      <c r="AJ90" s="79"/>
+      <c r="AK90" s="79"/>
+      <c r="AL90" s="79"/>
+      <c r="AM90" s="79"/>
+      <c r="AN90" s="79"/>
+      <c r="AO90" s="79"/>
+      <c r="AP90" s="79"/>
+      <c r="AQ90" s="79"/>
+      <c r="AR90" s="79"/>
+    </row>
+    <row r="91" spans="1:44" ht="27.75" customHeight="1">
+      <c r="A91" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C91" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="D91" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="E91" s="28" t="s">
+        <v>361</v>
+      </c>
       <c r="F91" s="16"/>
       <c r="G91" s="17"/>
       <c r="H91" s="18"/>
       <c r="I91" s="19"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
+      <c r="K91" s="82" t="s">
+        <v>440</v>
+      </c>
       <c r="L91" s="11"/>
       <c r="M91" s="11"/>
       <c r="N91" s="56"/>
@@ -7319,49 +7454,153 @@
       <c r="AQ91" s="11"/>
       <c r="AR91" s="11"/>
     </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" spans="1:44" ht="13.5" customHeight="1">
+      <c r="A92" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C92" s="58" t="s">
+        <v>439</v>
+      </c>
+      <c r="D92" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="F92" s="16"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="82" t="s">
+        <v>440</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="M92" s="11"/>
+      <c r="N92" s="56"/>
+      <c r="O92" s="57"/>
+      <c r="P92" s="20"/>
+      <c r="Q92" s="16"/>
+      <c r="R92" s="17"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="19"/>
+      <c r="U92" s="11"/>
+      <c r="V92" s="11"/>
+      <c r="W92" s="56"/>
+      <c r="X92" s="43"/>
+      <c r="Y92" s="22"/>
+      <c r="Z92" s="16"/>
+      <c r="AA92" s="17"/>
+      <c r="AB92" s="18"/>
+      <c r="AC92" s="19"/>
+      <c r="AD92" s="11"/>
+      <c r="AE92" s="11"/>
+      <c r="AF92" s="11"/>
+      <c r="AG92" s="11"/>
+      <c r="AH92" s="11"/>
+      <c r="AI92" s="11"/>
+      <c r="AJ92" s="11"/>
+      <c r="AK92" s="11"/>
+      <c r="AL92" s="11"/>
+      <c r="AM92" s="11"/>
+      <c r="AN92" s="11"/>
+      <c r="AO92" s="11"/>
+      <c r="AP92" s="11"/>
+      <c r="AQ92" s="11"/>
+      <c r="AR92" s="11"/>
+    </row>
+    <row r="93" spans="1:44" ht="13.5" customHeight="1">
+      <c r="A93" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="56"/>
+      <c r="O93" s="57"/>
+      <c r="P93" s="20"/>
+      <c r="Q93" s="16"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="18"/>
+      <c r="T93" s="19"/>
+      <c r="U93" s="11"/>
+      <c r="V93" s="11"/>
+      <c r="W93" s="56"/>
+      <c r="X93" s="43"/>
+      <c r="Y93" s="22"/>
+      <c r="Z93" s="16"/>
+      <c r="AA93" s="17"/>
+      <c r="AB93" s="18"/>
+      <c r="AC93" s="19"/>
+      <c r="AD93" s="11"/>
+      <c r="AE93" s="11"/>
+      <c r="AF93" s="11"/>
+      <c r="AG93" s="11"/>
+      <c r="AH93" s="11"/>
+      <c r="AI93" s="11"/>
+      <c r="AJ93" s="11"/>
+      <c r="AK93" s="11"/>
+      <c r="AL93" s="11"/>
+      <c r="AM93" s="11"/>
+      <c r="AN93" s="11"/>
+      <c r="AO93" s="11"/>
+      <c r="AP93" s="11"/>
+      <c r="AQ93" s="11"/>
+      <c r="AR93" s="11"/>
+    </row>
+    <row r="94" spans="1:44" ht="14.25" customHeight="1"/>
+    <row r="95" spans="1:44" ht="14.25" customHeight="1"/>
+    <row r="96" spans="1:44" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="29.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="13.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="10" style="0" width="6.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="21" style="0" width="13.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="0" width="15.13"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="9" width="13.83203125" customWidth="1"/>
+    <col min="10" max="20" width="6.6640625" customWidth="1"/>
+    <col min="21" max="27" width="13.33203125" customWidth="1"/>
+    <col min="28" max="1025" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:27" ht="14.25" customHeight="1">
       <c r="A1" s="83" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B1" s="83" t="s">
         <v>1</v>
@@ -7406,21 +7645,21 @@
       <c r="Z1" s="11"/>
       <c r="AA1" s="11"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:27" ht="14.25" customHeight="1">
       <c r="A2" s="86" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
@@ -7445,21 +7684,21 @@
       <c r="Z2" s="11"/>
       <c r="AA2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:27" ht="14.25" customHeight="1">
       <c r="A3" s="86" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="B3" s="86" t="s">
-        <v>374</v>
-      </c>
-      <c r="C3" s="87" t="s">
-        <v>375</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>376</v>
-      </c>
       <c r="E3" s="64" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
@@ -7484,21 +7723,21 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:27" ht="14.25" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B4" s="88" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
@@ -7523,21 +7762,21 @@
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:27" ht="14.25" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B5" s="88" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
@@ -7562,21 +7801,21 @@
       <c r="Z5" s="11"/>
       <c r="AA5" s="11"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:27" ht="14.25" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
@@ -7601,21 +7840,21 @@
       <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:27" ht="14.25" customHeight="1">
       <c r="A7" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" s="88" t="s">
         <v>378</v>
       </c>
-      <c r="B7" s="88" t="s">
-        <v>384</v>
-      </c>
       <c r="C7" s="58" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
@@ -7640,21 +7879,21 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:27" ht="14.25" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
@@ -7679,21 +7918,21 @@
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:27" ht="14.25" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B9" s="88" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
@@ -7718,21 +7957,21 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:27" ht="14.25" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
@@ -7757,21 +7996,21 @@
       <c r="Z10" s="11"/>
       <c r="AA10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:27" ht="14.25" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B11" s="88" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
@@ -7796,21 +8035,21 @@
       <c r="Z11" s="11"/>
       <c r="AA11" s="11"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:27" ht="14.25" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
@@ -7835,21 +8074,21 @@
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:27" ht="14.25" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
@@ -7874,21 +8113,21 @@
       <c r="Z13" s="11"/>
       <c r="AA13" s="11"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:27" ht="14.25" customHeight="1">
       <c r="A14" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" s="88" t="s">
         <v>388</v>
       </c>
-      <c r="B14" s="88" t="s">
-        <v>394</v>
-      </c>
       <c r="C14" s="58" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
@@ -7913,21 +8152,21 @@
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:27" ht="14.25" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B15" s="88" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="17"/>
@@ -7952,21 +8191,21 @@
       <c r="Z15" s="11"/>
       <c r="AA15" s="11"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:27" ht="14.25" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
@@ -7991,21 +8230,21 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:27" ht="14.25" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B17" s="88" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="17"/>
@@ -8030,21 +8269,21 @@
       <c r="Z17" s="11"/>
       <c r="AA17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:27" ht="14.25" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B18" s="88" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
@@ -8069,21 +8308,21 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:27" ht="14.25" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="B19" s="88" t="n">
+        <v>393</v>
+      </c>
+      <c r="B19" s="88">
         <v>61</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
@@ -8108,21 +8347,21 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="11"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:27" ht="14.25" customHeight="1">
       <c r="A20" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="B20" s="88">
+        <v>91</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>397</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>398</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>399</v>
-      </c>
-      <c r="B20" s="88" t="n">
-        <v>91</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="D20" s="57" t="s">
-        <v>404</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>405</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
@@ -8147,21 +8386,21 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:27" ht="14.25" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="B21" s="88" t="n">
+        <v>393</v>
+      </c>
+      <c r="B21" s="88">
         <v>122</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="17"/>
@@ -8186,21 +8425,21 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="11"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:27" ht="14.25" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="B22" s="88" t="n">
+        <v>393</v>
+      </c>
+      <c r="B22" s="88">
         <v>183</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D22" s="57" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
@@ -8225,21 +8464,21 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:27" ht="14.25" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="B23" s="88" t="n">
+        <v>393</v>
+      </c>
+      <c r="B23" s="88">
         <v>244</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
@@ -8264,21 +8503,21 @@
       <c r="Z23" s="11"/>
       <c r="AA23" s="11"/>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:27" ht="14.25" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B24" s="88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E24" s="64" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
@@ -8303,21 +8542,21 @@
       <c r="Z24" s="11"/>
       <c r="AA24" s="11"/>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:27" ht="14.25" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D25" s="57" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
@@ -8342,21 +8581,21 @@
       <c r="Z25" s="11"/>
       <c r="AA25" s="11"/>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:27" ht="14.25" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
@@ -8381,21 +8620,21 @@
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:27" ht="14.25" customHeight="1">
       <c r="A27" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>416</v>
+      </c>
+      <c r="D27" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>422</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>423</v>
-      </c>
       <c r="E27" s="22" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="22"/>
@@ -8420,7 +8659,7 @@
       <c r="Z27" s="11"/>
       <c r="AA27" s="11"/>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:27" ht="14.25" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="56"/>
@@ -8449,7 +8688,7 @@
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:27" ht="14.25" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="56"/>
@@ -8478,7 +8717,7 @@
       <c r="Z29" s="11"/>
       <c r="AA29" s="11"/>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:27" ht="14.25" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="56"/>
@@ -8507,7 +8746,7 @@
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:27" ht="14.25" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="56"/>
@@ -8536,7 +8775,7 @@
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:27" ht="14.25" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="56"/>
@@ -8565,7 +8804,7 @@
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:27" ht="14.25" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="56"/>
@@ -8594,7 +8833,7 @@
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:27" ht="14.25" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="56"/>
@@ -8623,7 +8862,7 @@
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:27" ht="14.25" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="56"/>
@@ -8652,7 +8891,7 @@
       <c r="Z35" s="11"/>
       <c r="AA35" s="11"/>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:27" ht="14.25" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="56"/>
@@ -8681,7 +8920,7 @@
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:27" ht="14.25" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="56"/>
@@ -8710,7 +8949,7 @@
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:27" ht="14.25" customHeight="1">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="56"/>
@@ -8721,7 +8960,7 @@
       <c r="H38" s="18"/>
       <c r="I38" s="19"/>
       <c r="J38" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
@@ -8741,75 +8980,70 @@
       <c r="Z38" s="11"/>
       <c r="AA38" s="11"/>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="1048576" ht="15" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="7" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="17" style="0" width="13.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="15.13"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="7" max="16" width="6.83203125" customWidth="1"/>
+    <col min="17" max="26" width="13.33203125" customWidth="1"/>
+    <col min="27" max="1025" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -8831,26 +9065,26 @@
       <c r="Y1" s="11"/>
       <c r="Z1" s="11"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C2" s="90" t="str">
-        <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2017-12-06  16-13</v>
+        <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
+        <v>2018-02-05 12-26</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -8872,33 +9106,33 @@
       <c r="Y2" s="11"/>
       <c r="Z2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="1048576" ht="15" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>